--- a/template/諸経費等.xlsx
+++ b/template/諸経費等.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\work\00_Wavesync\24_不動産管理システム\03_帳票\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\work\00_Wavesync\24_不動産管理システム\00_source\backend\kbs_backend\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0ADF03-B68C-45F8-8A22-B34F784281F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B77A3B-0F4C-4EAF-B6B7-C8D9FEA5FD2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -428,13 +428,13 @@
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
     <numFmt numFmtId="178" formatCode="#,##0_);[Red]\(#,##0\)"/>
     <numFmt numFmtId="179" formatCode="yyyy/m/d\ h:mm;@"/>
-    <numFmt numFmtId="181" formatCode="#,##0&quot;円&quot;"/>
-    <numFmt numFmtId="182" formatCode="&quot;金&quot;###,###,###,###,##0&quot;円&quot;&quot;也&quot;"/>
-    <numFmt numFmtId="183" formatCode="&quot;金 &quot;#,##0&quot; 円也&quot;;&quot;金 ▲&quot;#,##0&quot; 円也&quot;"/>
-    <numFmt numFmtId="184" formatCode="&quot;金 &quot;#,##0&quot; 円&quot;"/>
-    <numFmt numFmtId="185" formatCode="&quot;（消費税及び地方消費税金&quot;#,##0&quot;円を含む）&quot;"/>
-    <numFmt numFmtId="197" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="205" formatCode="\(&quot;消&quot;&quot;費&quot;&quot;税&quot;&quot;お&quot;&quot;よ&quot;&quot;び&quot;&quot;地&quot;&quot;方&quot;&quot;消&quot;&quot;費&quot;&quot;税&quot;\ &quot;金&quot;###,###,###,###&quot;円&quot;&quot;を&quot;&quot;含&quot;&quot;む&quot;\)"/>
+    <numFmt numFmtId="180" formatCode="#,##0&quot;円&quot;"/>
+    <numFmt numFmtId="181" formatCode="&quot;金&quot;###,###,###,###,##0&quot;円&quot;&quot;也&quot;"/>
+    <numFmt numFmtId="182" formatCode="&quot;金 &quot;#,##0&quot; 円也&quot;;&quot;金 ▲&quot;#,##0&quot; 円也&quot;"/>
+    <numFmt numFmtId="183" formatCode="&quot;金 &quot;#,##0&quot; 円&quot;"/>
+    <numFmt numFmtId="184" formatCode="&quot;（消費税及び地方消費税金&quot;#,##0&quot;円を含む）&quot;"/>
+    <numFmt numFmtId="185" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="186" formatCode="\(&quot;消&quot;&quot;費&quot;&quot;税&quot;&quot;お&quot;&quot;よ&quot;&quot;び&quot;&quot;地&quot;&quot;方&quot;&quot;消&quot;&quot;費&quot;&quot;税&quot;\ &quot;金&quot;###,###,###,###&quot;円&quot;&quot;を&quot;&quot;含&quot;&quot;む&quot;\)"/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
@@ -932,7 +932,7 @@
     <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="197" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1004,19 +1004,19 @@
     <xf numFmtId="38" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1032,7 +1032,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="181" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="58" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1080,35 +1080,74 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="15" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="15" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="14" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="14" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="14" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="15" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="15" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1116,13 +1155,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="182" fontId="10" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="10" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="10" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="10" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="10" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="10" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1142,45 +1181,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="14" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="14" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="14" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="205" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3064,16 +3064,16 @@
     </row>
     <row r="2" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="23"/>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
       <c r="J2" s="48"/>
     </row>
     <row r="3" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -3088,12 +3088,12 @@
       <c r="I4" s="40"/>
     </row>
     <row r="5" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
       <c r="F5" s="28" t="s">
         <v>6</v>
       </c>
@@ -3101,14 +3101,14 @@
     </row>
     <row r="6" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" s="69" t="str">
+      <c r="D7" s="82" t="str">
         <f>G13</f>
         <v>$payPriceTax$</v>
       </c>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="71"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="84"/>
       <c r="I7" s="25"/>
       <c r="J7" s="29"/>
     </row>
@@ -3129,22 +3129,34 @@
       <c r="J9" s="29"/>
     </row>
     <row r="10" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="73"/>
-      <c r="D10" s="74" t="s">
+      <c r="C10" s="86"/>
+      <c r="D10" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="76"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="89"/>
       <c r="J10" s="29"/>
+      <c r="L10" s="61">
+        <v>8250000</v>
+      </c>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="61"/>
     </row>
     <row r="11" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J11" s="33"/>
+      <c r="L11" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
     </row>
     <row r="12" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="77" t="s">
@@ -3160,56 +3172,59 @@
       <c r="H12" s="78"/>
       <c r="I12" s="79"/>
       <c r="J12" s="33"/>
+      <c r="L12" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
     </row>
     <row r="13" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="83" t="s">
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="84"/>
-      <c r="I13" s="85"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="67"/>
       <c r="J13" s="33"/>
+      <c r="L13" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
     </row>
     <row r="14" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="86" t="s">
+      <c r="B14" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="87"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="85"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="67"/>
       <c r="J14" s="33"/>
-      <c r="L14" s="89">
-        <v>8250000</v>
-      </c>
-      <c r="M14" s="89"/>
-      <c r="N14" s="89"/>
-      <c r="O14" s="89"/>
-      <c r="P14" s="89"/>
+      <c r="L14" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
     </row>
     <row r="15" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="64"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="60"/>
-      <c r="L15" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="76"/>
     </row>
     <row r="16" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="49"/>
@@ -3220,17 +3235,12 @@
       <c r="G16" s="34"/>
       <c r="H16" s="35"/>
       <c r="I16" s="35"/>
-      <c r="L16" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
     </row>
-    <row r="17" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="63" t="s">
+    <row r="17" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="63"/>
+      <c r="C17" s="57"/>
       <c r="D17" s="42" t="s">
         <v>14</v>
       </c>
@@ -3239,13 +3249,8 @@
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>
       <c r="I17" s="29"/>
-      <c r="L17" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
     </row>
-    <row r="18" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="43"/>
       <c r="C18" s="43"/>
       <c r="D18" s="43"/>
@@ -3254,44 +3259,39 @@
       <c r="G18" s="43"/>
       <c r="H18" s="43"/>
       <c r="I18" s="43"/>
-      <c r="L18" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
     </row>
-    <row r="19" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D19" s="36"/>
       <c r="E19" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
     </row>
-    <row r="20" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" s="36"/>
       <c r="E20" s="37"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
     </row>
-    <row r="21" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="62" t="s">
+      <c r="F21" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
     </row>
-    <row r="22" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E22" s="37"/>
       <c r="F22" s="44"/>
       <c r="G22" s="44"/>
@@ -3299,7 +3299,7 @@
       <c r="I22" s="44"/>
       <c r="J22" s="44"/>
     </row>
-    <row r="23" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E23" s="37"/>
       <c r="F23" s="45"/>
       <c r="G23" s="45"/>
@@ -3307,14 +3307,14 @@
       <c r="I23" s="45"/>
       <c r="J23" s="45"/>
     </row>
-    <row r="24" spans="2:14" ht="12" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:10" ht="12" x14ac:dyDescent="0.55000000000000004">
       <c r="F24" s="45"/>
       <c r="G24" s="45"/>
       <c r="H24" s="45"/>
       <c r="I24" s="45"/>
       <c r="J24" s="45"/>
     </row>
-    <row r="25" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="38" t="s">
         <v>12</v>
       </c>
@@ -3322,17 +3322,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="G15:I15"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="B2:I2"/>
@@ -3340,6 +3329,17 @@
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:I10"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="L10:P10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/template/諸経費等.xlsx
+++ b/template/諸経費等.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\work\00_Wavesync\24_不動産管理システム\00_source\backend\kbs_backend\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B77A3B-0F4C-4EAF-B6B7-C8D9FEA5FD2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F31893E-7FDF-4F1B-9FDE-4B8D3E515C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>地　番
 家屋番号</t>
@@ -268,10 +268,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>$address$</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>(物件番号：$contractBukkenNo$）</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -296,13 +292,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>担当：$contractStaffName$</t>
-    <rPh sb="0" eb="2">
-      <t>タントウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>$contractFixDay_dt_kanji$</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -311,31 +300,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>$addressAndBlockOrBuildingNumber$</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>$payPriceTax$</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>買主： 株式会社メトロス開発</t>
-  </si>
-  <si>
-    <t>上記所在物件の業務委託契約書に基づく業務委託料として</t>
-    <rPh sb="0" eb="6">
-      <t>ジョウキショザイブッケン</t>
-    </rPh>
-    <rPh sb="7" eb="14">
-      <t>ギョウムイタクケイヤクショ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="18" eb="23">
-      <t>ギョウムイタクリョウ</t>
-    </rPh>
-    <phoneticPr fontId="22"/>
   </si>
   <si>
     <t>以下余白</t>
@@ -408,15 +377,51 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>$paymentName$</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>$supplierName$</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>$contractFixDay_dt_kanji$</t>
+  </si>
+  <si>
+    <t>$supplierAddress$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>上記所在物件の不動産売買契約に基づく$paymentName$として</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショザイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ブッケン</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>フドウサン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バイバイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <t>$paymentName$$detailRemarks$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>担当：$payContractStaffName$</t>
+    <rPh sb="0" eb="2">
+      <t>タントウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -2860,7 +2865,7 @@
   </sheetPr>
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -2882,27 +2887,27 @@
   <sheetData>
     <row r="1" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="6"/>
       <c r="H1" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>18</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2916,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="53" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E2" s="53" t="s">
         <v>19</v>
@@ -2935,16 +2940,16 @@
         <v>1</v>
       </c>
       <c r="F3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="H3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="46" t="s">
         <v>31</v>
-      </c>
-      <c r="I3" s="46" t="s">
-        <v>32</v>
       </c>
       <c r="J3" s="46" t="s">
         <v>20</v>
@@ -2954,21 +2959,21 @@
         <v>2</v>
       </c>
       <c r="M3" s="46" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="46" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E4" s="47" t="s">
         <v>22</v>
@@ -2986,7 +2991,7 @@
         <v>26</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K4" s="14"/>
       <c r="L4" s="52" t="e">
@@ -3134,7 +3139,7 @@
       </c>
       <c r="C10" s="86"/>
       <c r="D10" s="87" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E10" s="88"/>
       <c r="F10" s="88"/>
@@ -3153,7 +3158,7 @@
     <row r="11" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J11" s="33"/>
       <c r="L11" s="50" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="M11" s="50"/>
       <c r="N11" s="50"/>
@@ -3173,34 +3178,34 @@
       <c r="I12" s="79"/>
       <c r="J12" s="33"/>
       <c r="L12" s="50" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="M12" s="50"/>
       <c r="N12" s="50"/>
     </row>
     <row r="13" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="62" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C13" s="63"/>
       <c r="D13" s="63"/>
       <c r="E13" s="63"/>
       <c r="F13" s="64"/>
       <c r="G13" s="65" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H13" s="66"/>
       <c r="I13" s="67"/>
       <c r="J13" s="33"/>
       <c r="L13" s="50" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="M13" s="50"/>
       <c r="N13" s="50"/>
     </row>
     <row r="14" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="68" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C14" s="69"/>
       <c r="D14" s="69"/>
@@ -3211,7 +3216,7 @@
       <c r="I14" s="67"/>
       <c r="J14" s="33"/>
       <c r="L14" s="50" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M14" s="50"/>
       <c r="N14" s="50"/>
@@ -3238,7 +3243,7 @@
     </row>
     <row r="17" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="57" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C17" s="57"/>
       <c r="D17" s="42" t="s">
@@ -3322,24 +3327,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:I10"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="L10:P10"/>
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="G12:I12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/template/諸経費等.xlsx
+++ b/template/諸経費等.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\work\00_Wavesync\24_不動産管理システム\00_source\backend\kbs_backend\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F31893E-7FDF-4F1B-9FDE-4B8D3E515C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9955D71-ADC2-4CF1-A269-64C36B1C0CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>地　番
 家屋番号</t>
@@ -244,10 +244,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>$contractFormNumber$</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>$bankName$</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -421,6 +417,14 @@
     <rPh sb="0" eb="2">
       <t>タントウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$address$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$list_contractFormNumber$</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -915,7 +919,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="38" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1074,6 +1078,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1083,75 +1090,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="14" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="14" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="14" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="15" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="15" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1186,6 +1124,75 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="14" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="14" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="14" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="15" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="15" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2887,69 +2894,69 @@
   <sheetData>
     <row r="1" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="6"/>
       <c r="H1" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>18</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="53" t="s">
+      <c r="D2" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="53"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="54"/>
       <c r="E3" s="46" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="H3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="46" t="s">
         <v>30</v>
-      </c>
-      <c r="I3" s="46" t="s">
-        <v>31</v>
       </c>
       <c r="J3" s="46" t="s">
         <v>20</v>
@@ -2959,39 +2966,39 @@
         <v>2</v>
       </c>
       <c r="M3" s="46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="F4" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="13" t="s">
         <v>34</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>35</v>
       </c>
       <c r="K4" s="14"/>
       <c r="L4" s="52" t="e">
@@ -2999,7 +3006,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="21" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3069,16 +3076,16 @@
     </row>
     <row r="2" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="23"/>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
       <c r="J2" s="48"/>
     </row>
     <row r="3" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -3093,12 +3100,12 @@
       <c r="I4" s="40"/>
     </row>
     <row r="5" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
       <c r="F5" s="28" t="s">
         <v>6</v>
       </c>
@@ -3106,14 +3113,14 @@
     </row>
     <row r="6" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" s="82" t="str">
+      <c r="D7" s="60" t="str">
         <f>G13</f>
         <v>$payPriceTax$</v>
       </c>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="84"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="62"/>
       <c r="I7" s="25"/>
       <c r="J7" s="29"/>
     </row>
@@ -3134,102 +3141,102 @@
       <c r="J9" s="29"/>
     </row>
     <row r="10" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="86"/>
-      <c r="D10" s="87" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="89"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="67"/>
       <c r="J10" s="29"/>
-      <c r="L10" s="61">
+      <c r="L10" s="72">
         <v>8250000</v>
       </c>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="72"/>
+      <c r="P10" s="72"/>
     </row>
     <row r="11" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J11" s="33"/>
       <c r="L11" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M11" s="50"/>
       <c r="N11" s="50"/>
     </row>
     <row r="12" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78" t="s">
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="78"/>
-      <c r="I12" s="79"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="90"/>
       <c r="J12" s="33"/>
       <c r="L12" s="50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M12" s="50"/>
       <c r="N12" s="50"/>
     </row>
     <row r="13" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="65" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="66"/>
-      <c r="I13" s="67"/>
+      <c r="B13" s="73" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="76" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="77"/>
+      <c r="I13" s="78"/>
       <c r="J13" s="33"/>
       <c r="L13" s="50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M13" s="50"/>
       <c r="N13" s="50"/>
     </row>
     <row r="14" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="68" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="67"/>
+      <c r="B14" s="79" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="78"/>
       <c r="J14" s="33"/>
       <c r="L14" s="50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M14" s="50"/>
       <c r="N14" s="50"/>
     </row>
     <row r="15" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="71"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="76"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="87"/>
     </row>
     <row r="16" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="49"/>
@@ -3242,10 +3249,10 @@
       <c r="I16" s="35"/>
     </row>
     <row r="17" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="57"/>
+      <c r="B17" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="68"/>
       <c r="D17" s="42" t="s">
         <v>14</v>
       </c>
@@ -3270,31 +3277,31 @@
       <c r="E19" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
     </row>
     <row r="20" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" s="36"/>
       <c r="E20" s="37"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
     </row>
     <row r="21" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="60" t="s">
+      <c r="F21" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="71"/>
     </row>
     <row r="22" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E22" s="37"/>
@@ -3327,11 +3334,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:I10"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="F19:J19"/>
     <mergeCell ref="F20:I20"/>
@@ -3345,6 +3347,11 @@
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:I10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/template/諸経費等.xlsx
+++ b/template/諸経費等.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\work\00_Wavesync\24_不動産管理システム\00_source\backend\kbs_backend\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9955D71-ADC2-4CF1-A269-64C36B1C0CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CC0EAA-1249-4AF3-A328-4708C56D4D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,6 +29,7 @@
     <definedName name="Data">#REF!</definedName>
     <definedName name="DB">#REF!</definedName>
     <definedName name="japan">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">支払依頼書帳票!$A$1:$P$13</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">領収証!$A$1:$J$25</definedName>
     <definedName name="ProjectName" localSheetId="0">{"Client Name or Project Name"}</definedName>
     <definedName name="ProjectName" localSheetId="1">{"Client Name or Project Name"}</definedName>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>地　番
 家屋番号</t>
@@ -413,18 +414,36 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>担当：$payContractStaffName$</t>
+    <t>$address$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$list_contractFormNumber$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>担当：$infoStaffName$</t>
     <rPh sb="0" eb="2">
       <t>タントウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>$address$</t>
+    <t>社長</t>
+    <rPh sb="0" eb="2">
+      <t>シャチョウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>$list_contractFormNumber$</t>
+    <t>作成者</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$payPriceTaxPlusFixedTax$</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -611,7 +630,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -896,16 +915,123 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -919,13 +1045,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="38" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -962,9 +1085,6 @@
     <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -979,9 +1099,6 @@
     </xf>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="21" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="178" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -1071,25 +1188,136 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="21" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="14" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="14" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="14" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="15" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="15" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1124,75 +1352,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="14" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="14" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="14" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="15" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="15" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2870,173 +3029,233 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="22" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="27.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="12" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.58203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="10.58203125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="12.75" style="5" customWidth="1"/>
-    <col min="10" max="10" width="12.08203125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="14.83203125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="14" style="5" customWidth="1"/>
-    <col min="13" max="13" width="15.75" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="12.83203125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.58203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.58203125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.08203125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="6.1640625" style="4" customWidth="1"/>
+    <col min="12" max="13" width="8.6640625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="5.33203125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="3.33203125" style="4" customWidth="1"/>
+    <col min="16" max="16" width="12.4140625" style="4" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+    </row>
+    <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="59"/>
+      <c r="O3" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" s="50"/>
+    </row>
+    <row r="4" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="C4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="N4" s="60"/>
+      <c r="O4" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" s="61"/>
     </row>
-    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-    </row>
-    <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="54"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="46"/>
-      <c r="L3" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="46" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="52" t="e">
-        <f>J4+K4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="21" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="2" t="s">
+    <row r="5" spans="1:16" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="13">
         <f>SUM(J4:J4)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="52">
         <f>SUM(K4:K4)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="52" t="e">
-        <f>SUM(L4:L4)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M5" s="20"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="60">
+        <f>SUM(M4:M4)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="60"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
     </row>
+    <row r="6" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="7" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="8" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="L8" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" s="63"/>
+      <c r="O8" s="64"/>
+    </row>
+    <row r="9" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="64"/>
+    </row>
+    <row r="10" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="66"/>
+    </row>
+    <row r="11" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="66"/>
+    </row>
+    <row r="12" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="68"/>
+    </row>
+    <row r="13" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="18">
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O12"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="L9:L12"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -3058,282 +3277,287 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="2.58203125" style="24" customWidth="1"/>
-    <col min="2" max="3" width="6.58203125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="24" customWidth="1"/>
-    <col min="5" max="5" width="3.5" style="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.58203125" style="24" customWidth="1"/>
-    <col min="7" max="8" width="6.58203125" style="24" customWidth="1"/>
-    <col min="9" max="9" width="7" style="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.58203125" style="24" customWidth="1"/>
-    <col min="11" max="11" width="8.58203125" style="24"/>
-    <col min="12" max="12" width="8.58203125" style="24" customWidth="1"/>
-    <col min="13" max="16384" width="8.58203125" style="24"/>
+    <col min="1" max="1" width="2.58203125" style="21" customWidth="1"/>
+    <col min="2" max="3" width="6.58203125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="21" customWidth="1"/>
+    <col min="5" max="5" width="3.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.58203125" style="21" customWidth="1"/>
+    <col min="7" max="8" width="6.58203125" style="21" customWidth="1"/>
+    <col min="9" max="9" width="7" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.58203125" style="21" customWidth="1"/>
+    <col min="11" max="11" width="8.58203125" style="21"/>
+    <col min="12" max="12" width="8.58203125" style="21" customWidth="1"/>
+    <col min="13" max="16384" width="8.58203125" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="26"/>
+      <c r="A1" s="23"/>
     </row>
     <row r="2" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="23"/>
-      <c r="B2" s="58" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="48"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="45"/>
     </row>
     <row r="3" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="4" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="40"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="37"/>
     </row>
     <row r="5" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="28" t="s">
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="41"/>
+      <c r="I5" s="38"/>
     </row>
     <row r="6" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" s="60" t="str">
+      <c r="D7" s="94" t="str">
         <f>G13</f>
         <v>$payPriceTax$</v>
       </c>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="29"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="26"/>
     </row>
     <row r="8" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E8" s="30"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
     </row>
     <row r="9" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E9" s="30"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
     </row>
     <row r="10" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="64"/>
-      <c r="D10" s="65" t="s">
+      <c r="C10" s="98"/>
+      <c r="D10" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="29"/>
-      <c r="L10" s="72">
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="26"/>
+      <c r="L10" s="73">
         <v>8250000</v>
       </c>
-      <c r="M10" s="72"/>
-      <c r="N10" s="72"/>
-      <c r="O10" s="72"/>
-      <c r="P10" s="72"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="73"/>
+      <c r="O10" s="73"/>
+      <c r="P10" s="73"/>
     </row>
     <row r="11" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="J11" s="33"/>
-      <c r="L11" s="50" t="s">
+      <c r="J11" s="30"/>
+      <c r="L11" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
     </row>
     <row r="12" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="88" t="s">
+      <c r="B12" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89" t="s">
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="89"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="33"/>
-      <c r="L12" s="50" t="s">
+      <c r="H12" s="90"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="30"/>
+      <c r="L12" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
     </row>
     <row r="13" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="76" t="s">
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="77"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="33"/>
-      <c r="L13" s="50" t="s">
+      <c r="H13" s="78"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="30"/>
+      <c r="L13" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
     </row>
     <row r="14" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="79" t="s">
+      <c r="B14" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="33"/>
-      <c r="L14" s="50" t="s">
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="30"/>
+      <c r="L14" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
     </row>
     <row r="15" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="82"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="87"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="88"/>
     </row>
     <row r="16" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
     </row>
     <row r="17" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="68" t="s">
+      <c r="B17" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="68"/>
-      <c r="D17" s="42" t="s">
+      <c r="C17" s="69"/>
+      <c r="D17" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
     </row>
     <row r="18" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
     </row>
     <row r="19" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D19" s="36"/>
-      <c r="E19" s="37" t="s">
+      <c r="D19" s="33"/>
+      <c r="E19" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
     </row>
     <row r="20" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D20" s="36"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
     </row>
     <row r="21" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E21" s="37" t="s">
+      <c r="E21" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="71" t="s">
+      <c r="F21" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
     </row>
     <row r="22" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E22" s="37"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
     </row>
     <row r="23" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E23" s="37"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
     </row>
     <row r="24" spans="2:10" ht="12" x14ac:dyDescent="0.55000000000000004">
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
     </row>
     <row r="25" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="39"/>
+      <c r="F25" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:I10"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="F19:J19"/>
     <mergeCell ref="F20:I20"/>
@@ -3347,11 +3571,6 @@
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:I10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/template/諸経費等.xlsx
+++ b/template/諸経費等.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\work\00_Wavesync\24_不動産管理システム\00_source\backend\kbs_backend\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CC0EAA-1249-4AF3-A328-4708C56D4D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B18B7D8-EC07-4998-A927-759F513CF995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
     <definedName name="分析" localSheetId="1">{"Client Name or Project Name"}</definedName>
     <definedName name="分析">{"Client Name or Project Name"}</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -381,10 +381,6 @@
     <t>$contractFixDay_dt_kanji$</t>
   </si>
   <si>
-    <t>$supplierAddress$</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>上記所在物件の不動産売買契約に基づく$paymentName$として</t>
     <rPh sb="0" eb="2">
       <t>ジョウキ</t>
@@ -444,6 +440,10 @@
   </si>
   <si>
     <t>$payPriceTaxPlusFixedTax$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$addressAndBlockOrBuildingNumber$</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1194,24 +1194,54 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="21" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1219,105 +1249,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="21" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="14" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="14" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="14" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="15" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="15" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1352,6 +1283,75 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="14" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="14" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="14" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="15" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="15" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3055,7 +3055,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3" t="s">
@@ -3075,35 +3075,35 @@
         <v>35</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
     </row>
     <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="50"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="55"/>
       <c r="E3" s="43" t="s">
         <v>1</v>
       </c>
@@ -3122,23 +3122,23 @@
       <c r="J3" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="59" t="s">
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="59"/>
-      <c r="O3" s="50" t="s">
+      <c r="N3" s="50"/>
+      <c r="O3" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="P3" s="50"/>
+      <c r="P3" s="55"/>
     </row>
     <row r="4" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>33</v>
@@ -3164,16 +3164,16 @@
       <c r="J4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="N4" s="60"/>
-      <c r="O4" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="P4" s="61"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" s="51"/>
+      <c r="O4" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" s="56"/>
     </row>
     <row r="5" spans="1:16" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="14"/>
@@ -3191,58 +3191,67 @@
         <f>SUM(J4:J4)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="52">
+      <c r="K5" s="65">
         <f>SUM(K4:K4)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="52"/>
-      <c r="M5" s="60">
+      <c r="L5" s="65"/>
+      <c r="M5" s="51">
         <f>SUM(M4:M4)</f>
         <v>0</v>
       </c>
-      <c r="N5" s="60"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="62"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
     </row>
     <row r="6" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="7" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="8" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="L8" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="M8" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="N8" s="63"/>
-      <c r="O8" s="64"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="59"/>
     </row>
     <row r="9" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="64"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="59"/>
     </row>
     <row r="10" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="66"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="61"/>
     </row>
     <row r="11" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="66"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="61"/>
     </row>
     <row r="12" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="68"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="63"/>
     </row>
     <row r="13" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="L9:L12"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:I2"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="M5:N5"/>
@@ -3252,15 +3261,6 @@
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="N9:O12"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="L9:L12"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:I2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="1.1417322834645669" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3295,16 +3295,16 @@
     </row>
     <row r="2" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="20"/>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
       <c r="J2" s="45"/>
     </row>
     <row r="3" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -3319,12 +3319,12 @@
       <c r="I4" s="37"/>
     </row>
     <row r="5" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
       <c r="F5" s="25" t="s">
         <v>6</v>
       </c>
@@ -3332,14 +3332,14 @@
     </row>
     <row r="6" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" s="94" t="str">
+      <c r="D7" s="71" t="str">
         <f>G13</f>
         <v>$payPriceTax$</v>
       </c>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="96"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="73"/>
       <c r="I7" s="22"/>
       <c r="J7" s="26"/>
     </row>
@@ -3360,26 +3360,26 @@
       <c r="J9" s="26"/>
     </row>
     <row r="10" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="97" t="s">
+      <c r="B10" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="98"/>
-      <c r="D10" s="99" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="101"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="78"/>
       <c r="J10" s="26"/>
-      <c r="L10" s="73">
+      <c r="L10" s="83">
         <v>8250000</v>
       </c>
-      <c r="M10" s="73"/>
-      <c r="N10" s="73"/>
-      <c r="O10" s="73"/>
-      <c r="P10" s="73"/>
+      <c r="M10" s="83"/>
+      <c r="N10" s="83"/>
+      <c r="O10" s="83"/>
+      <c r="P10" s="83"/>
     </row>
     <row r="11" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J11" s="30"/>
@@ -3390,18 +3390,18 @@
       <c r="N11" s="47"/>
     </row>
     <row r="12" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="89" t="s">
+      <c r="B12" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90" t="s">
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="90"/>
-      <c r="I12" s="91"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="101"/>
       <c r="J12" s="30"/>
       <c r="L12" s="47" t="s">
         <v>38</v>
@@ -3410,18 +3410,18 @@
       <c r="N12" s="47"/>
     </row>
     <row r="13" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="74" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="77" t="s">
+      <c r="B13" s="84" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="78"/>
-      <c r="I13" s="79"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="89"/>
       <c r="J13" s="30"/>
       <c r="L13" s="47" t="s">
         <v>39</v>
@@ -3430,16 +3430,16 @@
       <c r="N13" s="47"/>
     </row>
     <row r="14" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="80" t="s">
+      <c r="B14" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="79"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="89"/>
       <c r="J14" s="30"/>
       <c r="L14" s="47" t="s">
         <v>40</v>
@@ -3448,14 +3448,14 @@
       <c r="N14" s="47"/>
     </row>
     <row r="15" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="83"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="88"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="98"/>
     </row>
     <row r="16" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="46"/>
@@ -3468,10 +3468,10 @@
       <c r="I16" s="32"/>
     </row>
     <row r="17" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="69"/>
+      <c r="C17" s="79"/>
       <c r="D17" s="39" t="s">
         <v>14</v>
       </c>
@@ -3496,31 +3496,31 @@
       <c r="E19" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="80"/>
     </row>
     <row r="20" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" s="33"/>
       <c r="E20" s="34"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="71"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="81"/>
     </row>
     <row r="21" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="72" t="s">
+      <c r="F21" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="72"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="82"/>
     </row>
     <row r="22" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E22" s="34"/>
@@ -3553,11 +3553,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:I10"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="F19:J19"/>
     <mergeCell ref="F20:I20"/>
@@ -3571,6 +3566,11 @@
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:I10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/template/諸経費等.xlsx
+++ b/template/諸経費等.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\work\00_Wavesync\24_不動産管理システム\00_source\backend\kbs_backend\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\新しいフォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B18B7D8-EC07-4998-A927-759F513CF995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559A6386-748B-4361-849D-FD30339B960E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
     <definedName name="Data">#REF!</definedName>
     <definedName name="DB">#REF!</definedName>
     <definedName name="japan">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">支払依頼書帳票!$A$1:$P$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">支払依頼書帳票!$A$1:$Q$13</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">領収証!$A$1:$J$25</definedName>
     <definedName name="ProjectName" localSheetId="0">{"Client Name or Project Name"}</definedName>
     <definedName name="ProjectName" localSheetId="1">{"Client Name or Project Name"}</definedName>
@@ -41,7 +41,7 @@
     <definedName name="分析" localSheetId="1">{"Client Name or Project Name"}</definedName>
     <definedName name="分析">{"Client Name or Project Name"}</definedName>
   </definedNames>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>地　番
 家屋番号</t>
@@ -360,16 +360,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>支払先</t>
-    <rPh sb="0" eb="2">
-      <t>シハライ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>サキ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>備考</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -444,6 +434,18 @@
   </si>
   <si>
     <t>$addressAndBlockOrBuildingNumber$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>支払先</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>地権者（売主）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$contractor$</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1045,313 +1047,310 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="38" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="178" fontId="15" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="178" fontId="18" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="178" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="21" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="21" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="14" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="14" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="14" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="15" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="15" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="181" fontId="10" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="10" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="10" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="10" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="10" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="10" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="14" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="14" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="14" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="15" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="15" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1374,7 +1373,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="概要"/>
@@ -3029,7 +3028,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -3039,23 +3038,23 @@
     <col min="2" max="2" width="17.5" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.83203125" style="4" customWidth="1"/>
     <col min="4" max="4" width="21.33203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="27.33203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.4140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="24" style="4" customWidth="1"/>
     <col min="7" max="7" width="12.58203125" style="4" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" style="4" customWidth="1"/>
     <col min="9" max="9" width="12.75" style="4" customWidth="1"/>
     <col min="10" max="10" width="12.08203125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="6.1640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" style="4" customWidth="1"/>
     <col min="12" max="13" width="8.6640625" style="4" customWidth="1"/>
     <col min="14" max="14" width="5.33203125" style="4" customWidth="1"/>
-    <col min="15" max="15" width="3.33203125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="5.75" style="4" customWidth="1"/>
     <col min="16" max="16" width="12.4140625" style="4" customWidth="1"/>
     <col min="17" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3" t="s">
@@ -3071,111 +3070,118 @@
       <c r="I1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>49</v>
+      <c r="N1" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="55" t="s">
+    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+    </row>
+    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="53"/>
+      <c r="P3" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
+      <c r="Q3" s="49"/>
     </row>
-    <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="55"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="N3" s="50"/>
-      <c r="O3" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="P3" s="55"/>
-    </row>
-    <row r="4" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="48" t="s">
-        <v>48</v>
+      <c r="B4" s="47" t="s">
+        <v>47</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="G4" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="H4" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="44" t="s">
+      <c r="I4" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="44" t="s">
+      <c r="J4" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="K4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="N4" s="51"/>
-      <c r="O4" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="P4" s="56"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" s="54"/>
+      <c r="P4" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q4" s="58"/>
     </row>
-    <row r="5" spans="1:16" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:17" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="14"/>
       <c r="B5" s="15"/>
       <c r="C5" s="16"/>
@@ -3184,87 +3190,88 @@
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="16"/>
+      <c r="J5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="13">
-        <f>SUM(J4:J4)</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="65">
+      <c r="K5" s="13">
         <f>SUM(K4:K4)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="65"/>
-      <c r="M5" s="51">
-        <f>SUM(M4:M4)</f>
+      <c r="L5" s="67">
+        <f>SUM(L4:L4)</f>
         <v>0</v>
       </c>
-      <c r="N5" s="51"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="54">
+        <f>SUM(N4:N4)</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="54"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="59"/>
     </row>
-    <row r="6" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="7" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="8" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="L8" s="49" t="s">
+    <row r="6" spans="1:17" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="7" spans="1:17" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="8" spans="1:17" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="L8" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="M8" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="N8" s="58"/>
-      <c r="O8" s="59"/>
+      <c r="N8" s="60"/>
+      <c r="O8" s="61"/>
     </row>
-    <row r="9" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="59"/>
+    <row r="9" spans="1:17" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="61"/>
     </row>
-    <row r="10" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="61"/>
+    <row r="10" spans="1:17" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="63"/>
     </row>
-    <row r="11" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="60"/>
-      <c r="O11" s="61"/>
+    <row r="11" spans="1:17" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="63"/>
     </row>
-    <row r="12" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="63"/>
+    <row r="12" spans="1:17" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="65"/>
     </row>
-    <row r="13" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="13" spans="1:17" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O12"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M5"/>
     <mergeCell ref="L9:L12"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M9:M12"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O12"/>
+    <mergeCell ref="E2:J2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="1.1417322834645669" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="58" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -3295,16 +3302,16 @@
     </row>
     <row r="2" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="20"/>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
       <c r="J2" s="45"/>
     </row>
     <row r="3" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -3319,12 +3326,12 @@
       <c r="I4" s="37"/>
     </row>
     <row r="5" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
       <c r="F5" s="25" t="s">
         <v>6</v>
       </c>
@@ -3332,14 +3339,14 @@
     </row>
     <row r="6" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" s="71" t="str">
+      <c r="D7" s="93" t="str">
         <f>G13</f>
         <v>$payPriceTax$</v>
       </c>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="73"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="95"/>
       <c r="I7" s="22"/>
       <c r="J7" s="26"/>
     </row>
@@ -3360,102 +3367,94 @@
       <c r="J9" s="26"/>
     </row>
     <row r="10" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="75"/>
-      <c r="D10" s="76" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="78"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="98" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="100"/>
       <c r="J10" s="26"/>
-      <c r="L10" s="83">
+      <c r="L10" s="72">
         <v>8250000</v>
       </c>
-      <c r="M10" s="83"/>
-      <c r="N10" s="83"/>
-      <c r="O10" s="83"/>
-      <c r="P10" s="83"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="72"/>
+      <c r="P10" s="72"/>
     </row>
     <row r="11" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J11" s="30"/>
-      <c r="L11" s="47" t="s">
+      <c r="L11" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
     </row>
     <row r="12" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="99" t="s">
+      <c r="B12" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="100"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100" t="s">
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="100"/>
-      <c r="I12" s="101"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="90"/>
       <c r="J12" s="30"/>
-      <c r="L12" s="47" t="s">
+      <c r="L12" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
     </row>
     <row r="13" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="84" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="85"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="87" t="s">
+      <c r="B13" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="88"/>
-      <c r="I13" s="89"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="78"/>
       <c r="J13" s="30"/>
-      <c r="L13" s="47" t="s">
+      <c r="L13" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
     </row>
     <row r="14" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="90" t="s">
+      <c r="B14" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="89"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="78"/>
       <c r="J14" s="30"/>
-      <c r="L14" s="47" t="s">
+      <c r="L14" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
     </row>
     <row r="15" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="93"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="97"/>
-      <c r="I15" s="98"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="87"/>
     </row>
     <row r="16" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="46"/>
@@ -3468,10 +3467,10 @@
       <c r="I16" s="32"/>
     </row>
     <row r="17" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="79" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="79"/>
+      <c r="B17" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="68"/>
       <c r="D17" s="39" t="s">
         <v>14</v>
       </c>
@@ -3496,31 +3495,31 @@
       <c r="E19" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="80"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
     </row>
     <row r="20" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" s="33"/>
       <c r="E20" s="34"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
     </row>
     <row r="21" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="82" t="s">
+      <c r="F21" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="82"/>
-      <c r="H21" s="82"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="82"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="71"/>
     </row>
     <row r="22" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E22" s="34"/>
@@ -3553,6 +3552,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:I10"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="F19:J19"/>
     <mergeCell ref="F20:I20"/>
@@ -3566,11 +3570,6 @@
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:I10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/template/諸経費等.xlsx
+++ b/template/諸経費等.xlsx
@@ -1,44 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\新しいフォルダー\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayane\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559A6386-748B-4361-849D-FD30339B960E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3205DF3E-44AA-4688-8E26-C772A3050EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="支払依頼書帳票" sheetId="17" r:id="rId1"/>
-    <sheet name="領収証" sheetId="18" r:id="rId2"/>
+    <sheet name="振替伝票" sheetId="19" r:id="rId2"/>
+    <sheet name="領収証" sheetId="18" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="____ALL3">[1]仲介業者ﾘｽﾄ!$1:$1048576</definedName>
     <definedName name="___ALL3">[1]仲介業者ﾘｽﾄ!$1:$1048576</definedName>
     <definedName name="__ALL3">[1]仲介業者ﾘｽﾄ!$1:$1048576</definedName>
     <definedName name="_ALL3">[1]仲介業者ﾘｽﾄ!$1:$1048576</definedName>
-    <definedName name="ALL" localSheetId="1">[1]台帳!$1:$1048576</definedName>
+    <definedName name="ALL" localSheetId="2">[1]台帳!$1:$1048576</definedName>
     <definedName name="ALL">[1]台帳!$1:$1048576</definedName>
     <definedName name="Data">#REF!</definedName>
     <definedName name="DB">#REF!</definedName>
     <definedName name="japan">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">支払依頼書帳票!$A$1:$Q$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">領収証!$A$1:$J$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">振替伝票!$A$1:$K$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">領収証!$A$1:$J$25</definedName>
     <definedName name="ProjectName" localSheetId="0">{"Client Name or Project Name"}</definedName>
     <definedName name="ProjectName" localSheetId="1">{"Client Name or Project Name"}</definedName>
+    <definedName name="ProjectName" localSheetId="2">{"Client Name or Project Name"}</definedName>
     <definedName name="ProjectName">{"Client Name or Project Name"}</definedName>
     <definedName name="富永リクエスト" localSheetId="0">{"Client Name or Project Name"}</definedName>
     <definedName name="富永リクエスト" localSheetId="1">{"Client Name or Project Name"}</definedName>
+    <definedName name="富永リクエスト" localSheetId="2">{"Client Name or Project Name"}</definedName>
     <definedName name="富永リクエスト">{"Client Name or Project Name"}</definedName>
     <definedName name="分析" localSheetId="0">{"Client Name or Project Name"}</definedName>
     <definedName name="分析" localSheetId="1">{"Client Name or Project Name"}</definedName>
+    <definedName name="分析" localSheetId="2">{"Client Name or Project Name"}</definedName>
     <definedName name="分析">{"Client Name or Project Name"}</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -60,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="83">
   <si>
     <t>地　番
 家屋番号</t>
@@ -446,6 +451,195 @@
   </si>
   <si>
     <t>$contractor$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>振替伝票</t>
+    <rPh sb="0" eb="4">
+      <t>フリカエデンピョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$contractFixDay$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>伝票№</t>
+    <rPh sb="0" eb="2">
+      <t>デンピョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>借方勘定科目</t>
+    <rPh sb="0" eb="2">
+      <t>カリカタ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンジョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カモク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>借方金額</t>
+    <rPh sb="0" eb="2">
+      <t>カリカタ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>貸方勘定科目</t>
+    <rPh sb="0" eb="2">
+      <t>カシカタ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンジョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カモク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>貸方金額</t>
+    <rPh sb="0" eb="2">
+      <t>カシカタ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シャッキン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>摘要</t>
+    <rPh sb="0" eb="2">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>借方補助科目</t>
+    <rPh sb="0" eb="2">
+      <t>カリカタ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>ホジョカモク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>消費税</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒゼイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>貸方補助科目</t>
+    <rPh sb="0" eb="2">
+      <t>カシカタ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>ホジョカモク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$debtorKanjyoName$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$debtorPayPrice$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$creditorKanjyoName$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$creditorPayPrice$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$remark$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$note$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$debtorKanjyoDetailName$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$debtorPayTax$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$creditorKanjyoDetailName$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$creditorPayTax$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>借方合計</t>
+    <rPh sb="0" eb="4">
+      <t>カリカタゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>貸方合計</t>
+    <rPh sb="0" eb="2">
+      <t>カシカタ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>貸借バランス</t>
+    <rPh sb="0" eb="2">
+      <t>タイシャク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>株式会社メトロス開発</t>
+    <rPh sb="0" eb="4">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カイハツ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -453,7 +647,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="11">
+  <numFmts count="14">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-411]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
     <numFmt numFmtId="178" formatCode="#,##0_);[Red]\(#,##0\)"/>
@@ -465,8 +660,10 @@
     <numFmt numFmtId="184" formatCode="&quot;（消費税及び地方消費税金&quot;#,##0&quot;円を含む）&quot;"/>
     <numFmt numFmtId="185" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="186" formatCode="\(&quot;消&quot;&quot;費&quot;&quot;税&quot;&quot;お&quot;&quot;よ&quot;&quot;び&quot;&quot;地&quot;&quot;方&quot;&quot;消&quot;&quot;費&quot;&quot;税&quot;\ &quot;金&quot;###,###,###,###&quot;円&quot;&quot;を&quot;&quot;含&quot;&quot;む&quot;\)"/>
+    <numFmt numFmtId="187" formatCode="[$]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@" x16r2:formatCode16="[$-ja-JP-x-gannen]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="188" formatCode="#,##0_);\(#,##0\)"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -617,8 +814,24 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -631,8 +844,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="33">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -1036,6 +1255,111 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1047,7 +1371,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="38" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1193,6 +1517,54 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1243,12 +1615,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1351,6 +1717,63 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3028,7 +3451,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -3052,7 +3475,7 @@
     <col min="17" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>46</v>
       </c>
@@ -3077,33 +3500,33 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="49" t="s">
+    <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-    </row>
-    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="49"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+    </row>
+    <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="65"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="65"/>
       <c r="E3" s="43" t="s">
         <v>53</v>
       </c>
@@ -3125,18 +3548,16 @@
       <c r="K3" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="53" t="s">
+      <c r="L3" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="53"/>
-      <c r="P3" s="49" t="s">
+      <c r="M3" s="69"/>
+      <c r="N3" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="Q3" s="49"/>
-    </row>
-    <row r="4" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O3" s="65"/>
+    </row>
+    <row r="4" spans="1:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="9" t="s">
         <v>31</v>
       </c>
@@ -3170,18 +3591,16 @@
       <c r="K4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="54" t="s">
+      <c r="L4" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="O4" s="54"/>
-      <c r="P4" s="58" t="s">
+      <c r="M4" s="70"/>
+      <c r="N4" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="Q4" s="58"/>
-    </row>
-    <row r="5" spans="1:17" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O4" s="74"/>
+    </row>
+    <row r="5" spans="1:15" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="14"/>
       <c r="B5" s="15"/>
       <c r="C5" s="16"/>
@@ -3198,70 +3617,62 @@
         <f>SUM(K4:K4)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="67">
+      <c r="L5" s="70">
         <f>SUM(L4:L4)</f>
         <v>0</v>
       </c>
-      <c r="M5" s="67"/>
-      <c r="N5" s="54">
-        <f>SUM(N4:N4)</f>
-        <v>0</v>
-      </c>
-      <c r="O5" s="54"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="59"/>
-    </row>
-    <row r="6" spans="1:17" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="7" spans="1:17" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="8" spans="1:17" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="M5" s="70"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+    </row>
+    <row r="6" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="7" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="8" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="L8" s="48" t="s">
         <v>49</v>
       </c>
       <c r="M8" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="N8" s="60"/>
-      <c r="O8" s="61"/>
-    </row>
-    <row r="9" spans="1:17" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="61"/>
-    </row>
-    <row r="10" spans="1:17" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="63"/>
-    </row>
-    <row r="11" spans="1:17" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="63"/>
-    </row>
-    <row r="12" spans="1:17" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="64"/>
-      <c r="O12" s="65"/>
-    </row>
-    <row r="13" spans="1:17" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+      <c r="N8" s="76"/>
+      <c r="O8" s="77"/>
+    </row>
+    <row r="9" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="77"/>
+    </row>
+    <row r="10" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="L10" s="72"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="78"/>
+      <c r="O10" s="79"/>
+    </row>
+    <row r="11" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="L11" s="72"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="79"/>
+    </row>
+    <row r="12" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="L12" s="73"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="80"/>
+      <c r="O12" s="81"/>
+    </row>
+    <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="15">
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="M9:M12"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N5:O5"/>
-    <mergeCell ref="M9:M12"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="N9:O12"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L5:M5"/>
     <mergeCell ref="L9:L12"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -3277,6 +3688,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4839FB9-CC0E-4279-B873-DE09AC886FAE}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N11"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="16.58203125" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="16.58203125" customWidth="1"/>
+    <col min="6" max="7" width="12.5" customWidth="1"/>
+    <col min="12" max="12" width="23.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="49" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="51"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="55"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="132"/>
+      <c r="M3" s="133"/>
+      <c r="N3" s="133"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="I4" s="129"/>
+      <c r="J4" s="131"/>
+      <c r="K4" s="129"/>
+      <c r="L4" s="132"/>
+      <c r="M4" s="133"/>
+      <c r="N4" s="133"/>
+    </row>
+    <row r="5" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="116" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
+    </row>
+    <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="117" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="118"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="123" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" s="123"/>
+      <c r="K8" s="123"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="120"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
+      <c r="J9" s="123"/>
+      <c r="K9" s="123"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="64">
+        <f>SUM(B8:B9)</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="64">
+        <f>SUM(D8:D9)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="124" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="125"/>
+      <c r="G10" s="126">
+        <f>SUM(B10-D10)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="127"/>
+      <c r="I10" s="124"/>
+      <c r="J10" s="125"/>
+      <c r="K10" s="128"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="I11" s="115" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="115"/>
+      <c r="K11" s="115"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="E6:H7"/>
+    <mergeCell ref="I6:K7"/>
+    <mergeCell ref="E8:H9"/>
+    <mergeCell ref="I8:K9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:K10"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="89" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA614EDA-8493-4D8E-A4D3-9A7748D9A46A}">
   <dimension ref="A1:P25"/>
   <sheetViews>
@@ -3302,16 +3921,16 @@
     </row>
     <row r="2" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="20"/>
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
       <c r="J2" s="45"/>
     </row>
     <row r="3" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -3326,12 +3945,12 @@
       <c r="I4" s="37"/>
     </row>
     <row r="5" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
       <c r="F5" s="25" t="s">
         <v>6</v>
       </c>
@@ -3339,14 +3958,14 @@
     </row>
     <row r="6" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" s="93" t="str">
+      <c r="D7" s="107" t="str">
         <f>G13</f>
         <v>$payPriceTax$</v>
       </c>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="95"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="109"/>
       <c r="I7" s="22"/>
       <c r="J7" s="26"/>
     </row>
@@ -3367,26 +3986,26 @@
       <c r="J9" s="26"/>
     </row>
     <row r="10" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="96" t="s">
+      <c r="B10" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="97"/>
-      <c r="D10" s="98" t="s">
+      <c r="C10" s="111"/>
+      <c r="D10" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="99"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="100"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="114"/>
       <c r="J10" s="26"/>
-      <c r="L10" s="72">
+      <c r="L10" s="86">
         <v>8250000</v>
       </c>
-      <c r="M10" s="72"/>
-      <c r="N10" s="72"/>
-      <c r="O10" s="72"/>
-      <c r="P10" s="72"/>
+      <c r="M10" s="86"/>
+      <c r="N10" s="86"/>
+      <c r="O10" s="86"/>
+      <c r="P10" s="86"/>
     </row>
     <row r="11" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J11" s="30"/>
@@ -3395,66 +4014,66 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="88" t="s">
+      <c r="B12" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89" t="s">
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="89"/>
-      <c r="I12" s="90"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="104"/>
       <c r="J12" s="30"/>
       <c r="L12" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="76" t="s">
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="77"/>
-      <c r="I13" s="78"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="92"/>
       <c r="J13" s="30"/>
       <c r="L13" s="21" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="79" t="s">
+      <c r="B14" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="78"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="92"/>
       <c r="J14" s="30"/>
       <c r="L14" s="21" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="82"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="87"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="101"/>
     </row>
     <row r="16" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="46"/>
@@ -3467,10 +4086,10 @@
       <c r="I16" s="32"/>
     </row>
     <row r="17" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="68" t="s">
+      <c r="B17" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="68"/>
+      <c r="C17" s="82"/>
       <c r="D17" s="39" t="s">
         <v>14</v>
       </c>
@@ -3495,31 +4114,31 @@
       <c r="E19" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="83"/>
     </row>
     <row r="20" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" s="33"/>
       <c r="E20" s="34"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
     </row>
     <row r="21" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="71" t="s">
+      <c r="F21" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="85"/>
     </row>
     <row r="22" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E22" s="34"/>

--- a/template/諸経費等.xlsx
+++ b/template/諸経費等.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayane\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3205DF3E-44AA-4688-8E26-C772A3050EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54719EF-6142-44A1-802F-060336B8D5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <definedName name="Data">#REF!</definedName>
     <definedName name="DB">#REF!</definedName>
     <definedName name="japan">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">支払依頼書帳票!$A$1:$Q$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">支払依頼書帳票!$A$1:$O$13</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">振替伝票!$A$1:$K$12</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">領収証!$A$1:$J$25</definedName>
     <definedName name="ProjectName" localSheetId="0">{"Client Name or Project Name"}</definedName>
@@ -1565,7 +1565,46 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="21" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1577,112 +1616,61 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="21" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="14" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="14" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="14" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="15" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="15" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -1718,61 +1706,73 @@
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="14" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="14" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="14" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="15" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="15" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3501,32 +3501,32 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="65" t="s">
+      <c r="E2" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
     </row>
     <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="65"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="70"/>
       <c r="E3" s="43" t="s">
         <v>53</v>
       </c>
@@ -3548,14 +3548,14 @@
       <c r="K3" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="69" t="s">
+      <c r="L3" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="69"/>
-      <c r="N3" s="65" t="s">
+      <c r="M3" s="65"/>
+      <c r="N3" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="65"/>
+      <c r="O3" s="70"/>
     </row>
     <row r="4" spans="1:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="9" t="s">
@@ -3591,14 +3591,14 @@
       <c r="K4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="70" t="s">
+      <c r="L4" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="M4" s="70"/>
-      <c r="N4" s="74" t="s">
+      <c r="M4" s="66"/>
+      <c r="N4" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="O4" s="74"/>
+      <c r="O4" s="71"/>
     </row>
     <row r="5" spans="1:15" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="14"/>
@@ -3617,13 +3617,13 @@
         <f>SUM(K4:K4)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="70">
+      <c r="L5" s="66">
         <f>SUM(L4:L4)</f>
         <v>0</v>
       </c>
-      <c r="M5" s="70"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
     </row>
     <row r="6" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="7" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
@@ -3634,36 +3634,41 @@
       <c r="M8" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="N8" s="76"/>
-      <c r="O8" s="77"/>
+      <c r="N8" s="73"/>
+      <c r="O8" s="74"/>
     </row>
     <row r="9" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="76"/>
-      <c r="O9" s="77"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="67"/>
+      <c r="N9" s="73"/>
+      <c r="O9" s="74"/>
     </row>
     <row r="10" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L10" s="72"/>
-      <c r="M10" s="72"/>
-      <c r="N10" s="78"/>
-      <c r="O10" s="79"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="76"/>
     </row>
     <row r="11" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L11" s="72"/>
-      <c r="M11" s="72"/>
-      <c r="N11" s="78"/>
-      <c r="O11" s="79"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="75"/>
+      <c r="O11" s="76"/>
     </row>
     <row r="12" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="L12" s="73"/>
-      <c r="M12" s="73"/>
-      <c r="N12" s="80"/>
-      <c r="O12" s="81"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="77"/>
+      <c r="O12" s="78"/>
     </row>
     <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:J2"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="L5:M5"/>
@@ -3674,15 +3679,10 @@
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="N9:O12"/>
     <mergeCell ref="L9:L12"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:J2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="1.1417322834645669" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="58" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -3728,20 +3728,20 @@
         <v>59</v>
       </c>
       <c r="D3" s="55"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="129"/>
-      <c r="L3" s="132"/>
-      <c r="M3" s="133"/>
-      <c r="N3" s="133"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="I4" s="129"/>
-      <c r="J4" s="131"/>
-      <c r="K4" s="129"/>
-      <c r="L4" s="132"/>
-      <c r="M4" s="133"/>
-      <c r="N4" s="133"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="82"/>
     </row>
     <row r="5" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -3757,17 +3757,17 @@
       <c r="D6" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="116" t="s">
+      <c r="E6" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116" t="s">
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="J6" s="116"/>
-      <c r="K6" s="116"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="57" t="s">
@@ -3782,13 +3782,13 @@
       <c r="D7" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="116"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="116"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
     </row>
     <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="58" t="s">
@@ -3803,17 +3803,17 @@
       <c r="D8" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="117" t="s">
+      <c r="E8" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="118"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="123" t="s">
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="95" t="s">
         <v>74</v>
       </c>
-      <c r="J8" s="123"/>
-      <c r="K8" s="123"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="61" t="s">
@@ -3828,13 +3828,13 @@
       <c r="D9" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="120"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
-      <c r="J9" s="123"/>
-      <c r="K9" s="123"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="95"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="56" t="s">
@@ -3851,34 +3851,28 @@
         <f>SUM(D8:D9)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="124" t="s">
+      <c r="E10" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="F10" s="125"/>
-      <c r="G10" s="126">
+      <c r="F10" s="97"/>
+      <c r="G10" s="98">
         <f>SUM(B10-D10)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="127"/>
-      <c r="I10" s="124"/>
-      <c r="J10" s="125"/>
-      <c r="K10" s="128"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="97"/>
+      <c r="K10" s="100"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="I11" s="115" t="s">
+      <c r="I11" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="J11" s="115"/>
-      <c r="K11" s="115"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
     <mergeCell ref="I11:K11"/>
     <mergeCell ref="E6:H7"/>
     <mergeCell ref="I6:K7"/>
@@ -3887,6 +3881,12 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="I10:K10"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -3921,16 +3921,16 @@
     </row>
     <row r="2" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="20"/>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
       <c r="J2" s="45"/>
     </row>
     <row r="3" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -3945,12 +3945,12 @@
       <c r="I4" s="37"/>
     </row>
     <row r="5" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
       <c r="F5" s="25" t="s">
         <v>6</v>
       </c>
@@ -3958,14 +3958,14 @@
     </row>
     <row r="6" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" s="107" t="str">
+      <c r="D7" s="103" t="str">
         <f>G13</f>
         <v>$payPriceTax$</v>
       </c>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="109"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="105"/>
       <c r="I7" s="22"/>
       <c r="J7" s="26"/>
     </row>
@@ -3986,26 +3986,26 @@
       <c r="J9" s="26"/>
     </row>
     <row r="10" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="110" t="s">
+      <c r="B10" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="111"/>
-      <c r="D10" s="112" t="s">
+      <c r="C10" s="107"/>
+      <c r="D10" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="113"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="113"/>
-      <c r="H10" s="113"/>
-      <c r="I10" s="114"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="110"/>
       <c r="J10" s="26"/>
-      <c r="L10" s="86">
+      <c r="L10" s="115">
         <v>8250000</v>
       </c>
-      <c r="M10" s="86"/>
-      <c r="N10" s="86"/>
-      <c r="O10" s="86"/>
-      <c r="P10" s="86"/>
+      <c r="M10" s="115"/>
+      <c r="N10" s="115"/>
+      <c r="O10" s="115"/>
+      <c r="P10" s="115"/>
     </row>
     <row r="11" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J11" s="30"/>
@@ -4014,66 +4014,66 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="102" t="s">
+      <c r="B12" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103" t="s">
+      <c r="C12" s="132"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="103"/>
-      <c r="I12" s="104"/>
+      <c r="H12" s="132"/>
+      <c r="I12" s="133"/>
       <c r="J12" s="30"/>
       <c r="L12" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="87" t="s">
+      <c r="B13" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="90" t="s">
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="91"/>
-      <c r="I13" s="92"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="121"/>
       <c r="J13" s="30"/>
       <c r="L13" s="21" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="93" t="s">
+      <c r="B14" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="94"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="92"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="120"/>
+      <c r="I14" s="121"/>
       <c r="J14" s="30"/>
       <c r="L14" s="21" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="96"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="100"/>
-      <c r="I15" s="101"/>
+      <c r="B15" s="125"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="127"/>
+      <c r="G15" s="128"/>
+      <c r="H15" s="129"/>
+      <c r="I15" s="130"/>
     </row>
     <row r="16" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="46"/>
@@ -4086,10 +4086,10 @@
       <c r="I16" s="32"/>
     </row>
     <row r="17" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="82" t="s">
+      <c r="B17" s="111" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="82"/>
+      <c r="C17" s="111"/>
       <c r="D17" s="39" t="s">
         <v>14</v>
       </c>
@@ -4114,31 +4114,31 @@
       <c r="E19" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="83"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="112"/>
+      <c r="H19" s="112"/>
+      <c r="I19" s="112"/>
+      <c r="J19" s="112"/>
     </row>
     <row r="20" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" s="33"/>
       <c r="E20" s="34"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="84"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
     </row>
     <row r="21" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="85" t="s">
+      <c r="F21" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="85"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="85"/>
-      <c r="J21" s="85"/>
+      <c r="G21" s="114"/>
+      <c r="H21" s="114"/>
+      <c r="I21" s="114"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E22" s="34"/>
@@ -4171,11 +4171,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:I10"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="F19:J19"/>
     <mergeCell ref="F20:I20"/>
@@ -4189,6 +4184,11 @@
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:I10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/template/諸経費等.xlsx
+++ b/template/諸経費等.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayane\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54719EF-6142-44A1-802F-060336B8D5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62FA6C90-216E-4EE7-823C-E6158CD8C9B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="81">
   <si>
     <t>地　番
 家屋番号</t>
@@ -416,20 +416,6 @@
     <t>担当：$infoStaffName$</t>
     <rPh sb="0" eb="2">
       <t>タントウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>社長</t>
-    <rPh sb="0" eb="2">
-      <t>シャチョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>作成者</t>
-    <rPh sb="0" eb="3">
-      <t>サクセイシャ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1214,41 +1200,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -1360,6 +1315,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1371,7 +1363,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="38" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1523,7 +1515,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1544,27 +1536,33 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="24" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="24" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="24" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1592,19 +1590,19 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1622,13 +1620,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1637,22 +1635,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3468,9 +3466,7 @@
     <col min="9" max="9" width="12.75" style="4" customWidth="1"/>
     <col min="10" max="10" width="12.08203125" style="4" customWidth="1"/>
     <col min="11" max="11" width="10.33203125" style="4" customWidth="1"/>
-    <col min="12" max="13" width="8.6640625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="5.33203125" style="4" customWidth="1"/>
-    <col min="15" max="15" width="5.75" style="4" customWidth="1"/>
+    <col min="12" max="15" width="8.6640625" style="4" customWidth="1"/>
     <col min="16" max="16" width="12.4140625" style="4" customWidth="1"/>
     <col min="17" max="16384" width="9" style="4"/>
   </cols>
@@ -3501,34 +3497,34 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="70" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="70" t="s">
+      <c r="D2" s="72" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
     </row>
     <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="70"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="70"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="72"/>
       <c r="E3" s="43" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F3" s="43" t="s">
         <v>1</v>
@@ -3548,14 +3544,14 @@
       <c r="K3" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="65" t="s">
+      <c r="L3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="65"/>
-      <c r="N3" s="70" t="s">
+      <c r="M3" s="67"/>
+      <c r="N3" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="70"/>
+      <c r="O3" s="72"/>
     </row>
     <row r="4" spans="1:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="9" t="s">
@@ -3568,7 +3564,7 @@
         <v>33</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>42</v>
@@ -3591,14 +3587,14 @@
       <c r="K4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="66" t="s">
-        <v>51</v>
-      </c>
-      <c r="M4" s="66"/>
-      <c r="N4" s="71" t="s">
+      <c r="L4" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="68"/>
+      <c r="N4" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="O4" s="71"/>
+      <c r="O4" s="73"/>
     </row>
     <row r="5" spans="1:15" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="14"/>
@@ -3617,49 +3613,45 @@
         <f>SUM(K4:K4)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="66">
+      <c r="L5" s="68">
         <f>SUM(L4:L4)</f>
         <v>0</v>
       </c>
-      <c r="M5" s="66"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
     </row>
     <row r="6" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="7" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="8" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="L8" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="M8" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="N8" s="73"/>
-      <c r="O8" s="74"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="66"/>
     </row>
     <row r="9" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="73"/>
-      <c r="O9" s="74"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="75"/>
+      <c r="O9" s="78"/>
     </row>
     <row r="10" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L10" s="68"/>
-      <c r="M10" s="68"/>
-      <c r="N10" s="75"/>
-      <c r="O10" s="76"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="79"/>
     </row>
     <row r="11" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L11" s="68"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="75"/>
-      <c r="O11" s="76"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="76"/>
+      <c r="O11" s="79"/>
     </row>
     <row r="12" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
       <c r="N12" s="77"/>
-      <c r="O12" s="78"/>
+      <c r="O12" s="80"/>
     </row>
     <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
@@ -3676,13 +3668,13 @@
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O12"/>
     <mergeCell ref="L9:L12"/>
+    <mergeCell ref="N9:N12"/>
+    <mergeCell ref="O9:O12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="1.1417322834645669" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="63" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -3708,7 +3700,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="49" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -3719,157 +3711,157 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="54" t="s">
-        <v>59</v>
-      </c>
       <c r="D3" s="55"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="I4" s="83"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="82"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="84"/>
     </row>
     <row r="5" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="D6" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="E6" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="88" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88" t="s">
-        <v>65</v>
-      </c>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="57" t="s">
-        <v>68</v>
-      </c>
       <c r="D7" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88"/>
-      <c r="K7" s="88"/>
+        <v>65</v>
+      </c>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
     </row>
     <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="D8" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="E8" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="89" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="95" t="s">
-        <v>74</v>
-      </c>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="D9" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="61" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9" s="92"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="95"/>
-      <c r="K9" s="95"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="56" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B10" s="64">
         <f>SUM(B8:B9)</f>
         <v>0</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D10" s="64">
         <f>SUM(D8:D9)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="96" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" s="97"/>
-      <c r="G10" s="98">
+      <c r="E10" s="98" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="99"/>
+      <c r="G10" s="100">
         <f>SUM(B10-D10)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="99"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="97"/>
-      <c r="K10" s="100"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="98"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="102"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="I11" s="87" t="s">
-        <v>82</v>
-      </c>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
+      <c r="I11" s="89" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="89"/>
+      <c r="K11" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3921,16 +3913,16 @@
     </row>
     <row r="2" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="20"/>
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
       <c r="J2" s="45"/>
     </row>
     <row r="3" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -3945,12 +3937,12 @@
       <c r="I4" s="37"/>
     </row>
     <row r="5" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
       <c r="F5" s="25" t="s">
         <v>6</v>
       </c>
@@ -3958,14 +3950,14 @@
     </row>
     <row r="6" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" s="103" t="str">
+      <c r="D7" s="105" t="str">
         <f>G13</f>
         <v>$payPriceTax$</v>
       </c>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="105"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="107"/>
       <c r="I7" s="22"/>
       <c r="J7" s="26"/>
     </row>
@@ -3986,26 +3978,26 @@
       <c r="J9" s="26"/>
     </row>
     <row r="10" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="106" t="s">
+      <c r="B10" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="107"/>
-      <c r="D10" s="108" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="110"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="110" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="112"/>
       <c r="J10" s="26"/>
-      <c r="L10" s="115">
+      <c r="L10" s="117">
         <v>8250000</v>
       </c>
-      <c r="M10" s="115"/>
-      <c r="N10" s="115"/>
-      <c r="O10" s="115"/>
-      <c r="P10" s="115"/>
+      <c r="M10" s="117"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="117"/>
+      <c r="P10" s="117"/>
     </row>
     <row r="11" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J11" s="30"/>
@@ -4014,66 +4006,66 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="131" t="s">
+      <c r="B12" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="132"/>
-      <c r="D12" s="132"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="132"/>
-      <c r="G12" s="132" t="s">
+      <c r="C12" s="134"/>
+      <c r="D12" s="134"/>
+      <c r="E12" s="134"/>
+      <c r="F12" s="134"/>
+      <c r="G12" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="132"/>
-      <c r="I12" s="133"/>
+      <c r="H12" s="134"/>
+      <c r="I12" s="135"/>
       <c r="J12" s="30"/>
       <c r="L12" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="116" t="s">
+      <c r="B13" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="117"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="118"/>
-      <c r="G13" s="119" t="s">
+      <c r="C13" s="119"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="120"/>
-      <c r="I13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="30"/>
       <c r="L13" s="21" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="122" t="s">
+      <c r="B14" s="124" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="121"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="30"/>
       <c r="L14" s="21" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="125"/>
-      <c r="C15" s="126"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="126"/>
-      <c r="F15" s="127"/>
-      <c r="G15" s="128"/>
-      <c r="H15" s="129"/>
-      <c r="I15" s="130"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="131"/>
+      <c r="I15" s="132"/>
     </row>
     <row r="16" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="46"/>
@@ -4086,10 +4078,10 @@
       <c r="I16" s="32"/>
     </row>
     <row r="17" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="111" t="s">
+      <c r="B17" s="113" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="111"/>
+      <c r="C17" s="113"/>
       <c r="D17" s="39" t="s">
         <v>14</v>
       </c>
@@ -4114,31 +4106,31 @@
       <c r="E19" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="112"/>
-      <c r="G19" s="112"/>
-      <c r="H19" s="112"/>
-      <c r="I19" s="112"/>
-      <c r="J19" s="112"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="114"/>
+      <c r="I19" s="114"/>
+      <c r="J19" s="114"/>
     </row>
     <row r="20" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" s="33"/>
       <c r="E20" s="34"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="115"/>
     </row>
     <row r="21" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="114" t="s">
+      <c r="F21" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="114"/>
-      <c r="H21" s="114"/>
-      <c r="I21" s="114"/>
-      <c r="J21" s="114"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="116"/>
     </row>
     <row r="22" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E22" s="34"/>

--- a/template/諸経費等.xlsx
+++ b/template/諸経費等.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayane\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62FA6C90-216E-4EE7-823C-E6158CD8C9B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A334A4CB-EA21-4F4D-A38D-B88FE3F34D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1563,6 +1563,18 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1578,9 +1590,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1605,30 +1614,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1669,6 +1654,90 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="14" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="14" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="14" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="15" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="15" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -1703,75 +1772,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="14" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="14" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="14" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="15" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="15" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3497,32 +3497,32 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="72" t="s">
+      <c r="D2" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="72" t="s">
+      <c r="E2" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
     </row>
     <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="72"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="72"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="67"/>
       <c r="E3" s="43" t="s">
         <v>51</v>
       </c>
@@ -3544,14 +3544,14 @@
       <c r="K3" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="67" t="s">
+      <c r="L3" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="67"/>
-      <c r="N3" s="72" t="s">
+      <c r="M3" s="71"/>
+      <c r="N3" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="72"/>
+      <c r="O3" s="67"/>
     </row>
     <row r="4" spans="1:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="9" t="s">
@@ -3587,14 +3587,14 @@
       <c r="K4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="68" t="s">
+      <c r="L4" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="M4" s="68"/>
-      <c r="N4" s="73" t="s">
+      <c r="M4" s="72"/>
+      <c r="N4" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="O4" s="73"/>
+      <c r="O4" s="76"/>
     </row>
     <row r="5" spans="1:15" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="14"/>
@@ -3613,13 +3613,13 @@
         <f>SUM(K4:K4)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="68">
+      <c r="L5" s="72">
         <f>SUM(L4:L4)</f>
         <v>0</v>
       </c>
-      <c r="M5" s="68"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
     </row>
     <row r="6" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="7" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
@@ -3630,37 +3630,32 @@
       <c r="O8" s="66"/>
     </row>
     <row r="9" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="78"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="78"/>
+      <c r="O9" s="81"/>
     </row>
     <row r="10" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L10" s="70"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="76"/>
-      <c r="O10" s="79"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="79"/>
+      <c r="O10" s="82"/>
     </row>
     <row r="11" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L11" s="70"/>
-      <c r="M11" s="70"/>
-      <c r="N11" s="76"/>
-      <c r="O11" s="79"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="79"/>
+      <c r="O11" s="82"/>
     </row>
     <row r="12" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="77"/>
-      <c r="O12" s="80"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="75"/>
+      <c r="N12" s="80"/>
+      <c r="O12" s="83"/>
     </row>
     <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:J2"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="L5:M5"/>
@@ -3671,6 +3666,11 @@
     <mergeCell ref="L9:L12"/>
     <mergeCell ref="N9:N12"/>
     <mergeCell ref="O9:O12"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:J2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="1.1417322834645669" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3704,6 +3704,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="H2" s="50"/>
       <c r="I2" s="50"/>
       <c r="J2" s="50"/>
       <c r="K2" s="50"/>
@@ -3720,20 +3721,22 @@
         <v>57</v>
       </c>
       <c r="D3" s="55"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="98"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="I4" s="85"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="84"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="98"/>
     </row>
     <row r="5" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -3749,17 +3752,17 @@
       <c r="D6" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="90" t="s">
+      <c r="E6" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90" t="s">
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="57" t="s">
@@ -3774,13 +3777,13 @@
       <c r="D7" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
     </row>
     <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="58" t="s">
@@ -3795,17 +3798,17 @@
       <c r="D8" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="91" t="s">
+      <c r="E8" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="97" t="s">
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="J8" s="97"/>
-      <c r="K8" s="97"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="61" t="s">
@@ -3820,13 +3823,13 @@
       <c r="D9" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="94"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="97"/>
-      <c r="J9" s="97"/>
-      <c r="K9" s="97"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="56" t="s">
@@ -3843,28 +3846,35 @@
         <f>SUM(D8:D9)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="98" t="s">
+      <c r="E10" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="F10" s="99"/>
-      <c r="G10" s="100">
+      <c r="F10" s="94"/>
+      <c r="G10" s="95">
         <f>SUM(B10-D10)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="101"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="102"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="97"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="I11" s="89" t="s">
+      <c r="I11" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="J11" s="89"/>
-      <c r="K11" s="89"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="I11:K11"/>
     <mergeCell ref="E6:H7"/>
     <mergeCell ref="I6:K7"/>
@@ -3873,12 +3883,6 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="I10:K10"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -3913,16 +3917,16 @@
     </row>
     <row r="2" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="20"/>
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
       <c r="J2" s="45"/>
     </row>
     <row r="3" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -3937,12 +3941,12 @@
       <c r="I4" s="37"/>
     </row>
     <row r="5" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="127"/>
       <c r="F5" s="25" t="s">
         <v>6</v>
       </c>
@@ -3950,14 +3954,14 @@
     </row>
     <row r="6" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" s="105" t="str">
+      <c r="D7" s="128" t="str">
         <f>G13</f>
         <v>$payPriceTax$</v>
       </c>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="107"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="130"/>
       <c r="I7" s="22"/>
       <c r="J7" s="26"/>
     </row>
@@ -3978,26 +3982,26 @@
       <c r="J9" s="26"/>
     </row>
     <row r="10" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="108" t="s">
+      <c r="B10" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="109"/>
-      <c r="D10" s="110" t="s">
+      <c r="C10" s="132"/>
+      <c r="D10" s="133" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="111"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="112"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="134"/>
+      <c r="I10" s="135"/>
       <c r="J10" s="26"/>
-      <c r="L10" s="117">
+      <c r="L10" s="107">
         <v>8250000</v>
       </c>
-      <c r="M10" s="117"/>
-      <c r="N10" s="117"/>
-      <c r="O10" s="117"/>
-      <c r="P10" s="117"/>
+      <c r="M10" s="107"/>
+      <c r="N10" s="107"/>
+      <c r="O10" s="107"/>
+      <c r="P10" s="107"/>
     </row>
     <row r="11" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J11" s="30"/>
@@ -4006,66 +4010,66 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="133" t="s">
+      <c r="B12" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="134"/>
-      <c r="D12" s="134"/>
-      <c r="E12" s="134"/>
-      <c r="F12" s="134"/>
-      <c r="G12" s="134" t="s">
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="134"/>
-      <c r="I12" s="135"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="125"/>
       <c r="J12" s="30"/>
       <c r="L12" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="118" t="s">
+      <c r="B13" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="119"/>
-      <c r="D13" s="119"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="121" t="s">
+      <c r="C13" s="109"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="113"/>
       <c r="J13" s="30"/>
       <c r="L13" s="21" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="124" t="s">
+      <c r="B14" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="126"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="116"/>
+      <c r="G14" s="111"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="113"/>
       <c r="J14" s="30"/>
       <c r="L14" s="21" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="127"/>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="130"/>
-      <c r="H15" s="131"/>
-      <c r="I15" s="132"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
     </row>
     <row r="16" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="46"/>
@@ -4078,10 +4082,10 @@
       <c r="I16" s="32"/>
     </row>
     <row r="17" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="113" t="s">
+      <c r="B17" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="113"/>
+      <c r="C17" s="103"/>
       <c r="D17" s="39" t="s">
         <v>14</v>
       </c>
@@ -4106,31 +4110,31 @@
       <c r="E19" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="114"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="114"/>
-      <c r="J19" s="114"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="104"/>
+      <c r="J19" s="104"/>
     </row>
     <row r="20" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" s="33"/>
       <c r="E20" s="34"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="115"/>
-      <c r="I20" s="115"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="105"/>
+      <c r="I20" s="105"/>
     </row>
     <row r="21" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="116" t="s">
+      <c r="F21" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="116"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="106"/>
     </row>
     <row r="22" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E22" s="34"/>
@@ -4163,6 +4167,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:I10"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="F19:J19"/>
     <mergeCell ref="F20:I20"/>
@@ -4176,11 +4185,6 @@
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:I10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/template/諸経費等.xlsx
+++ b/template/諸経費等.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayane\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A334A4CB-EA21-4F4D-A38D-B88FE3F34D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A31B62-7415-4BD0-ADAE-3B6840BD1FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1363,7 +1363,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="38" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1772,6 +1772,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3509,23 +3524,23 @@
       <c r="D2" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="139" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="138"/>
     </row>
     <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="67"/>
       <c r="B3" s="67"/>
       <c r="C3" s="70"/>
       <c r="D3" s="67"/>
-      <c r="E3" s="43" t="s">
-        <v>51</v>
-      </c>
+      <c r="E3" s="140"/>
       <c r="F3" s="43" t="s">
         <v>1</v>
       </c>
@@ -3655,7 +3670,9 @@
     </row>
     <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="L5:M5"/>
@@ -3670,7 +3687,6 @@
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:J2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="1.1417322834645669" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3704,7 +3720,6 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="H2" s="50"/>
       <c r="I2" s="50"/>
       <c r="J2" s="50"/>
       <c r="K2" s="50"/>
@@ -3721,7 +3736,6 @@
         <v>57</v>
       </c>
       <c r="D3" s="55"/>
-      <c r="H3" s="99"/>
       <c r="I3" s="99"/>
       <c r="J3" s="100"/>
       <c r="K3" s="99"/>
@@ -3730,7 +3744,6 @@
       <c r="N3" s="98"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="H4" s="99"/>
       <c r="I4" s="99"/>
       <c r="J4" s="101"/>
       <c r="K4" s="99"/>
@@ -3867,8 +3880,7 @@
       <c r="K11" s="84"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="H3:H4"/>
+  <mergeCells count="14">
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>

--- a/template/諸経費等.xlsx
+++ b/template/諸経費等.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayane\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hishi\Desktop\_kbs_backend\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A31B62-7415-4BD0-ADAE-3B6840BD1FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC99574-5936-4873-8013-997A0A213A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -306,9 +306,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>買主： 株式会社メトロス開発</t>
-  </si>
-  <si>
     <t>以下余白</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -626,6 +623,10 @@
     <rPh sb="8" eb="10">
       <t>カイハツ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>株式会社メトロス開発</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1563,7 +1564,61 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="21" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1575,43 +1630,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="21" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1654,90 +1685,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="14" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="14" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="14" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="15" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="15" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -1773,19 +1720,73 @@
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="14" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="14" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="14" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="15" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="15" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3165,9 +3166,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3205,7 +3206,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3311,7 +3312,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3453,7 +3454,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3466,7 +3467,9 @@
   </sheetPr>
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -3488,7 +3491,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3" t="s">
@@ -3505,42 +3508,42 @@
         <v>18</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="67" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="139" t="s">
+      <c r="D2" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="136" t="s">
+      <c r="E2" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="138"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="69"/>
     </row>
     <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="67"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="140"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="71"/>
       <c r="F3" s="43" t="s">
         <v>1</v>
       </c>
@@ -3559,30 +3562,30 @@
       <c r="K3" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="71" t="s">
+      <c r="L3" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="71"/>
-      <c r="N3" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="O3" s="67"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="77"/>
     </row>
     <row r="4" spans="1:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" s="44" t="s">
         <v>21</v>
@@ -3602,14 +3605,14 @@
       <c r="K4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="72" t="s">
-        <v>49</v>
-      </c>
-      <c r="M4" s="72"/>
-      <c r="N4" s="76" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" s="76"/>
+      <c r="L4" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="73"/>
+      <c r="N4" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="78"/>
     </row>
     <row r="5" spans="1:15" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="14"/>
@@ -3628,13 +3631,13 @@
         <f>SUM(K4:K4)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="72">
+      <c r="L5" s="73">
         <f>SUM(L4:L4)</f>
         <v>0</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="79"/>
     </row>
     <row r="6" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="7" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
@@ -3645,37 +3648,36 @@
       <c r="O8" s="66"/>
     </row>
     <row r="9" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L9" s="73"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="78"/>
-      <c r="O9" s="81"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="80"/>
+      <c r="O9" s="83"/>
     </row>
     <row r="10" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L10" s="74"/>
-      <c r="M10" s="74"/>
-      <c r="N10" s="79"/>
-      <c r="O10" s="82"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="81"/>
+      <c r="O10" s="84"/>
     </row>
     <row r="11" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L11" s="74"/>
-      <c r="M11" s="74"/>
-      <c r="N11" s="79"/>
-      <c r="O11" s="82"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="75"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="84"/>
     </row>
     <row r="12" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="L12" s="75"/>
-      <c r="M12" s="75"/>
-      <c r="N12" s="80"/>
-      <c r="O12" s="83"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="82"/>
+      <c r="O12" s="85"/>
     </row>
     <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="M9:M12"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="N4:O4"/>
@@ -3683,10 +3685,11 @@
     <mergeCell ref="L9:L12"/>
     <mergeCell ref="N9:N12"/>
     <mergeCell ref="O9:O12"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="1.1417322834645669" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3716,7 +3719,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -3727,166 +3730,160 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="C3" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="54" t="s">
-        <v>57</v>
-      </c>
       <c r="D3" s="55"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="I4" s="99"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="102"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="98"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
     </row>
     <row r="5" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="C6" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="D6" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="E6" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="85" t="s">
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85" t="s">
-        <v>63</v>
-      </c>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="C7" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="57" t="s">
-        <v>66</v>
-      </c>
       <c r="D7" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
+        <v>64</v>
+      </c>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="95"/>
     </row>
     <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="C8" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="D8" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="E8" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="86" t="s">
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="92" t="s">
-        <v>72</v>
-      </c>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="C9" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="D9" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="89"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="92"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B10" s="64">
         <f>SUM(B8:B9)</f>
         <v>0</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" s="64">
         <f>SUM(D8:D9)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="93" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="94"/>
-      <c r="G10" s="95">
+      <c r="E10" s="103" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="104"/>
+      <c r="G10" s="105">
         <f>SUM(B10-D10)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="96"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="97"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="103"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="107"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="I11" s="84" t="s">
-        <v>80</v>
-      </c>
-      <c r="J11" s="84"/>
-      <c r="K11" s="84"/>
+      <c r="I11" s="94" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11" s="94"/>
+      <c r="K11" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
     <mergeCell ref="I11:K11"/>
     <mergeCell ref="E6:H7"/>
     <mergeCell ref="I6:K7"/>
@@ -3895,6 +3892,12 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="I10:K10"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -3929,16 +3932,16 @@
     </row>
     <row r="2" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="20"/>
-      <c r="B2" s="126" t="s">
+      <c r="B2" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
       <c r="J2" s="45"/>
     </row>
     <row r="3" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -3953,12 +3956,12 @@
       <c r="I4" s="37"/>
     </row>
     <row r="5" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="127" t="s">
+      <c r="B5" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
-      <c r="E5" s="127"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
       <c r="F5" s="25" t="s">
         <v>6</v>
       </c>
@@ -3966,14 +3969,14 @@
     </row>
     <row r="6" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" s="128" t="str">
+      <c r="D7" s="110" t="str">
         <f>G13</f>
         <v>$payPriceTax$</v>
       </c>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="129"/>
-      <c r="H7" s="130"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="112"/>
       <c r="I7" s="22"/>
       <c r="J7" s="26"/>
     </row>
@@ -3994,94 +3997,94 @@
       <c r="J9" s="26"/>
     </row>
     <row r="10" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="131" t="s">
+      <c r="B10" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="132"/>
-      <c r="D10" s="133" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="134"/>
-      <c r="F10" s="134"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="134"/>
-      <c r="I10" s="135"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="115" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="116"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="117"/>
       <c r="J10" s="26"/>
-      <c r="L10" s="107">
+      <c r="L10" s="122">
         <v>8250000</v>
       </c>
-      <c r="M10" s="107"/>
-      <c r="N10" s="107"/>
-      <c r="O10" s="107"/>
-      <c r="P10" s="107"/>
+      <c r="M10" s="122"/>
+      <c r="N10" s="122"/>
+      <c r="O10" s="122"/>
+      <c r="P10" s="122"/>
     </row>
     <row r="11" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J11" s="30"/>
       <c r="L11" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="123" t="s">
+      <c r="B12" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
-      <c r="F12" s="124"/>
-      <c r="G12" s="124" t="s">
+      <c r="C12" s="139"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="139" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="124"/>
-      <c r="I12" s="125"/>
+      <c r="H12" s="139"/>
+      <c r="I12" s="140"/>
       <c r="J12" s="30"/>
       <c r="L12" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="108" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="111" t="s">
+      <c r="B13" s="123" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="124"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="112"/>
-      <c r="I13" s="113"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="30"/>
       <c r="L13" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="114" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="111"/>
-      <c r="H14" s="112"/>
-      <c r="I14" s="113"/>
+      <c r="B14" s="129" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="130"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="131"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="30"/>
       <c r="L14" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="117"/>
-      <c r="C15" s="118"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="119"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
+      <c r="B15" s="132"/>
+      <c r="C15" s="133"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="135"/>
+      <c r="H15" s="136"/>
+      <c r="I15" s="137"/>
     </row>
     <row r="16" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="46"/>
@@ -4094,10 +4097,10 @@
       <c r="I16" s="32"/>
     </row>
     <row r="17" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="103" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="103"/>
+      <c r="B17" s="118" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="118"/>
       <c r="D17" s="39" t="s">
         <v>14</v>
       </c>
@@ -4122,31 +4125,31 @@
       <c r="E19" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="104"/>
-      <c r="G19" s="104"/>
-      <c r="H19" s="104"/>
-      <c r="I19" s="104"/>
-      <c r="J19" s="104"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="119"/>
+      <c r="I19" s="119"/>
+      <c r="J19" s="119"/>
     </row>
     <row r="20" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" s="33"/>
       <c r="E20" s="34"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="105"/>
-      <c r="I20" s="105"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="120"/>
+      <c r="H20" s="120"/>
+      <c r="I20" s="120"/>
     </row>
     <row r="21" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="106" t="s">
+      <c r="F21" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="106"/>
-      <c r="H21" s="106"/>
-      <c r="I21" s="106"/>
-      <c r="J21" s="106"/>
+      <c r="G21" s="121"/>
+      <c r="H21" s="121"/>
+      <c r="I21" s="121"/>
+      <c r="J21" s="121"/>
     </row>
     <row r="22" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E22" s="34"/>
@@ -4179,11 +4182,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:I10"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="F19:J19"/>
     <mergeCell ref="F20:I20"/>
@@ -4197,6 +4195,11 @@
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:I10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/template/諸経費等.xlsx
+++ b/template/諸経費等.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayane\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A31B62-7415-4BD0-ADAE-3B6840BD1FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C9E804-C195-4F75-B184-7F7A2651ECF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -306,9 +306,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>買主： 株式会社メトロス開発</t>
-  </si>
-  <si>
     <t>以下余白</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -626,6 +623,10 @@
     <rPh sb="8" eb="10">
       <t>カイハツ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>株式会社メトロス開発</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1575,44 +1576,59 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="21" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="21" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1772,21 +1788,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3488,7 +3489,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3" t="s">
@@ -3505,10 +3506,10 @@
         <v>18</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3522,25 +3523,25 @@
         <v>0</v>
       </c>
       <c r="D2" s="67" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="139" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="136" t="s">
+      <c r="E2" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="138"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="84"/>
     </row>
     <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="67"/>
       <c r="B3" s="67"/>
       <c r="C3" s="70"/>
       <c r="D3" s="67"/>
-      <c r="E3" s="140"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="43" t="s">
         <v>1</v>
       </c>
@@ -3559,12 +3560,12 @@
       <c r="K3" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="71" t="s">
+      <c r="L3" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="71"/>
+      <c r="M3" s="87"/>
       <c r="N3" s="67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O3" s="67"/>
     </row>
@@ -3573,16 +3574,16 @@
         <v>31</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" s="44" t="s">
         <v>21</v>
@@ -3602,14 +3603,14 @@
       <c r="K4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="72" t="s">
-        <v>49</v>
-      </c>
-      <c r="M4" s="72"/>
-      <c r="N4" s="76" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" s="76"/>
+      <c r="L4" s="88" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="88"/>
+      <c r="N4" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="74"/>
     </row>
     <row r="5" spans="1:15" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="14"/>
@@ -3628,13 +3629,13 @@
         <f>SUM(K4:K4)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="72">
+      <c r="L5" s="88">
         <f>SUM(L4:L4)</f>
         <v>0</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
     </row>
     <row r="6" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="7" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
@@ -3645,48 +3646,48 @@
       <c r="O8" s="66"/>
     </row>
     <row r="9" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L9" s="73"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="78"/>
-      <c r="O9" s="81"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="79"/>
     </row>
     <row r="10" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L10" s="74"/>
-      <c r="M10" s="74"/>
-      <c r="N10" s="79"/>
-      <c r="O10" s="82"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="80"/>
     </row>
     <row r="11" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L11" s="74"/>
-      <c r="M11" s="74"/>
-      <c r="N11" s="79"/>
-      <c r="O11" s="82"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="77"/>
+      <c r="O11" s="80"/>
     </row>
     <row r="12" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="L12" s="75"/>
-      <c r="M12" s="75"/>
-      <c r="N12" s="80"/>
-      <c r="O12" s="83"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="78"/>
+      <c r="O12" s="81"/>
     </row>
     <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="M9:M12"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="L9:L12"/>
     <mergeCell ref="N9:N12"/>
     <mergeCell ref="O9:O12"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M5"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="1.1417322834645669" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3716,10 +3717,11 @@
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="H2" s="50"/>
       <c r="I2" s="50"/>
       <c r="J2" s="50"/>
       <c r="K2" s="50"/>
@@ -3727,160 +3729,163 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="C3" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="54" t="s">
-        <v>57</v>
-      </c>
       <c r="D3" s="55"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="I4" s="99"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="102"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="98"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="103"/>
+      <c r="N4" s="103"/>
     </row>
     <row r="5" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="C6" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="D6" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="E6" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="85" t="s">
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85" t="s">
-        <v>63</v>
-      </c>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="C7" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="57" t="s">
-        <v>66</v>
-      </c>
       <c r="D7" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
+        <v>64</v>
+      </c>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
     </row>
     <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="C8" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="D8" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="E8" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="86" t="s">
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="92" t="s">
-        <v>72</v>
-      </c>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="C9" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="D9" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="89"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="92"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B10" s="64">
         <f>SUM(B8:B9)</f>
         <v>0</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" s="64">
         <f>SUM(D8:D9)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="93" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="94"/>
-      <c r="G10" s="95">
+      <c r="E10" s="98" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="99"/>
+      <c r="G10" s="100">
         <f>SUM(B10-D10)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="96"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="97"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="98"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="102"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="I11" s="84" t="s">
-        <v>80</v>
-      </c>
-      <c r="J11" s="84"/>
-      <c r="K11" s="84"/>
+      <c r="I11" s="89" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11" s="89"/>
+      <c r="K11" s="89"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="H3:H4"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
@@ -3929,16 +3934,16 @@
     </row>
     <row r="2" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="20"/>
-      <c r="B2" s="126" t="s">
+      <c r="B2" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
       <c r="J2" s="45"/>
     </row>
     <row r="3" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -3953,12 +3958,12 @@
       <c r="I4" s="37"/>
     </row>
     <row r="5" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="127" t="s">
+      <c r="B5" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
-      <c r="E5" s="127"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
       <c r="F5" s="25" t="s">
         <v>6</v>
       </c>
@@ -3966,14 +3971,14 @@
     </row>
     <row r="6" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" s="128" t="str">
+      <c r="D7" s="133" t="str">
         <f>G13</f>
         <v>$payPriceTax$</v>
       </c>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="129"/>
-      <c r="H7" s="130"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="134"/>
+      <c r="G7" s="134"/>
+      <c r="H7" s="135"/>
       <c r="I7" s="22"/>
       <c r="J7" s="26"/>
     </row>
@@ -3994,94 +3999,94 @@
       <c r="J9" s="26"/>
     </row>
     <row r="10" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="131" t="s">
+      <c r="B10" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="132"/>
-      <c r="D10" s="133" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="134"/>
-      <c r="F10" s="134"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="134"/>
-      <c r="I10" s="135"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="138" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="139"/>
+      <c r="F10" s="139"/>
+      <c r="G10" s="139"/>
+      <c r="H10" s="139"/>
+      <c r="I10" s="140"/>
       <c r="J10" s="26"/>
-      <c r="L10" s="107">
+      <c r="L10" s="112">
         <v>8250000</v>
       </c>
-      <c r="M10" s="107"/>
-      <c r="N10" s="107"/>
-      <c r="O10" s="107"/>
-      <c r="P10" s="107"/>
+      <c r="M10" s="112"/>
+      <c r="N10" s="112"/>
+      <c r="O10" s="112"/>
+      <c r="P10" s="112"/>
     </row>
     <row r="11" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J11" s="30"/>
       <c r="L11" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="123" t="s">
+      <c r="B12" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
-      <c r="F12" s="124"/>
-      <c r="G12" s="124" t="s">
+      <c r="C12" s="129"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="129"/>
+      <c r="G12" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="124"/>
-      <c r="I12" s="125"/>
+      <c r="H12" s="129"/>
+      <c r="I12" s="130"/>
       <c r="J12" s="30"/>
       <c r="L12" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="108" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="111" t="s">
+      <c r="B13" s="113" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="114"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="112"/>
-      <c r="I13" s="113"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="118"/>
       <c r="J13" s="30"/>
       <c r="L13" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="114" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="111"/>
-      <c r="H14" s="112"/>
-      <c r="I14" s="113"/>
+      <c r="B14" s="119" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="121"/>
+      <c r="G14" s="116"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="118"/>
       <c r="J14" s="30"/>
       <c r="L14" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="117"/>
-      <c r="C15" s="118"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="119"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
+      <c r="B15" s="122"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="127"/>
     </row>
     <row r="16" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="46"/>
@@ -4094,10 +4099,10 @@
       <c r="I16" s="32"/>
     </row>
     <row r="17" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="103" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="103"/>
+      <c r="B17" s="108" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="108"/>
       <c r="D17" s="39" t="s">
         <v>14</v>
       </c>
@@ -4122,31 +4127,31 @@
       <c r="E19" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="104"/>
-      <c r="G19" s="104"/>
-      <c r="H19" s="104"/>
-      <c r="I19" s="104"/>
-      <c r="J19" s="104"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="109"/>
+      <c r="H19" s="109"/>
+      <c r="I19" s="109"/>
+      <c r="J19" s="109"/>
     </row>
     <row r="20" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" s="33"/>
       <c r="E20" s="34"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="105"/>
-      <c r="I20" s="105"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="110"/>
+      <c r="I20" s="110"/>
     </row>
     <row r="21" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="106" t="s">
+      <c r="F21" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="106"/>
-      <c r="H21" s="106"/>
-      <c r="I21" s="106"/>
-      <c r="J21" s="106"/>
+      <c r="G21" s="111"/>
+      <c r="H21" s="111"/>
+      <c r="I21" s="111"/>
+      <c r="J21" s="111"/>
     </row>
     <row r="22" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E22" s="34"/>

--- a/template/諸経費等.xlsx
+++ b/template/諸経費等.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hishi\Desktop\_kbs_backend\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC99574-5936-4873-8013-997A0A213A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F07AF5-02E7-4C42-A0D0-690E31F28E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-7240" yWindow="2730" windowWidth="16710" windowHeight="8170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="支払依頼書帳票" sheetId="17" r:id="rId1"/>
@@ -626,7 +626,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>株式会社メトロス開発</t>
+    <t>買主： 株式会社メトロス開発</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1564,6 +1564,51 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="21" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1585,66 +1630,6 @@
     <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="21" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1685,6 +1670,90 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="14" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="14" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="14" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="15" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="15" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -1719,75 +1788,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="14" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="14" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="14" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="15" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="15" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3515,35 +3515,35 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="77" t="s">
+      <c r="D2" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="67" t="s">
+      <c r="F2" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="84"/>
     </row>
     <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="77"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="71"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="43" t="s">
         <v>1</v>
       </c>
@@ -3562,14 +3562,14 @@
       <c r="K3" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="72" t="s">
+      <c r="L3" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="72"/>
-      <c r="N3" s="77" t="s">
+      <c r="M3" s="87"/>
+      <c r="N3" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="O3" s="77"/>
+      <c r="O3" s="67"/>
     </row>
     <row r="4" spans="1:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="9" t="s">
@@ -3605,14 +3605,14 @@
       <c r="K4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="73" t="s">
+      <c r="L4" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="73"/>
-      <c r="N4" s="78" t="s">
+      <c r="M4" s="88"/>
+      <c r="N4" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="O4" s="78"/>
+      <c r="O4" s="74"/>
     </row>
     <row r="5" spans="1:15" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="14"/>
@@ -3631,13 +3631,13 @@
         <f>SUM(K4:K4)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="73">
+      <c r="L5" s="88">
         <f>SUM(L4:L4)</f>
         <v>0</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="79"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
     </row>
     <row r="6" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="7" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
@@ -3648,48 +3648,48 @@
       <c r="O8" s="66"/>
     </row>
     <row r="9" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="80"/>
-      <c r="O9" s="83"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="79"/>
     </row>
     <row r="10" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L10" s="75"/>
-      <c r="M10" s="75"/>
-      <c r="N10" s="81"/>
-      <c r="O10" s="84"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="80"/>
     </row>
     <row r="11" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L11" s="75"/>
-      <c r="M11" s="75"/>
-      <c r="N11" s="81"/>
-      <c r="O11" s="84"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="77"/>
+      <c r="O11" s="80"/>
     </row>
     <row r="12" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="L12" s="76"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="82"/>
-      <c r="O12" s="85"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="78"/>
+      <c r="O12" s="81"/>
     </row>
     <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="M9:M12"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="L9:L12"/>
     <mergeCell ref="N9:N12"/>
     <mergeCell ref="O9:O12"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="E2:E3"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="L5:M5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="1.1417322834645669" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3739,20 +3739,20 @@
         <v>56</v>
       </c>
       <c r="D3" s="55"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="I4" s="90"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="103"/>
+      <c r="N4" s="103"/>
     </row>
     <row r="5" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -3768,17 +3768,17 @@
       <c r="D6" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="95" t="s">
+      <c r="E6" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95" t="s">
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="57" t="s">
@@ -3793,13 +3793,13 @@
       <c r="D7" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
     </row>
     <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="58" t="s">
@@ -3814,17 +3814,17 @@
       <c r="D8" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="96" t="s">
+      <c r="E8" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="102" t="s">
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="61" t="s">
@@ -3839,13 +3839,13 @@
       <c r="D9" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="99"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="56" t="s">
@@ -3862,28 +3862,34 @@
         <f>SUM(D8:D9)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="103" t="s">
+      <c r="E10" s="98" t="s">
         <v>78</v>
       </c>
-      <c r="F10" s="104"/>
-      <c r="G10" s="105">
+      <c r="F10" s="99"/>
+      <c r="G10" s="100">
         <f>SUM(B10-D10)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="106"/>
-      <c r="I10" s="103"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="107"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="98"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="102"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="I11" s="94" t="s">
+      <c r="I11" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="J11" s="94"/>
-      <c r="K11" s="94"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="I11:K11"/>
     <mergeCell ref="E6:H7"/>
     <mergeCell ref="I6:K7"/>
@@ -3892,12 +3898,6 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="I10:K10"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -3932,16 +3932,16 @@
     </row>
     <row r="2" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="20"/>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
       <c r="J2" s="45"/>
     </row>
     <row r="3" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -3956,12 +3956,12 @@
       <c r="I4" s="37"/>
     </row>
     <row r="5" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
       <c r="F5" s="25" t="s">
         <v>6</v>
       </c>
@@ -3969,14 +3969,14 @@
     </row>
     <row r="6" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" s="110" t="str">
+      <c r="D7" s="133" t="str">
         <f>G13</f>
         <v>$payPriceTax$</v>
       </c>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="112"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="134"/>
+      <c r="G7" s="134"/>
+      <c r="H7" s="135"/>
       <c r="I7" s="22"/>
       <c r="J7" s="26"/>
     </row>
@@ -3997,26 +3997,26 @@
       <c r="J9" s="26"/>
     </row>
     <row r="10" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="113" t="s">
+      <c r="B10" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="114"/>
-      <c r="D10" s="115" t="s">
+      <c r="C10" s="137"/>
+      <c r="D10" s="138" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="117"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="139"/>
+      <c r="G10" s="139"/>
+      <c r="H10" s="139"/>
+      <c r="I10" s="140"/>
       <c r="J10" s="26"/>
-      <c r="L10" s="122">
+      <c r="L10" s="112">
         <v>8250000</v>
       </c>
-      <c r="M10" s="122"/>
-      <c r="N10" s="122"/>
-      <c r="O10" s="122"/>
-      <c r="P10" s="122"/>
+      <c r="M10" s="112"/>
+      <c r="N10" s="112"/>
+      <c r="O10" s="112"/>
+      <c r="P10" s="112"/>
     </row>
     <row r="11" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J11" s="30"/>
@@ -4025,66 +4025,66 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="138" t="s">
+      <c r="B12" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="139"/>
-      <c r="D12" s="139"/>
-      <c r="E12" s="139"/>
-      <c r="F12" s="139"/>
-      <c r="G12" s="139" t="s">
+      <c r="C12" s="129"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="129"/>
+      <c r="G12" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="139"/>
-      <c r="I12" s="140"/>
+      <c r="H12" s="129"/>
+      <c r="I12" s="130"/>
       <c r="J12" s="30"/>
       <c r="L12" s="21" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="123" t="s">
+      <c r="B13" s="113" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="124"/>
-      <c r="D13" s="124"/>
-      <c r="E13" s="124"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="126" t="s">
+      <c r="C13" s="114"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="118"/>
       <c r="J13" s="30"/>
       <c r="L13" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="129" t="s">
+      <c r="B14" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="130"/>
-      <c r="D14" s="130"/>
-      <c r="E14" s="130"/>
-      <c r="F14" s="131"/>
-      <c r="G14" s="126"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="121"/>
+      <c r="G14" s="116"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="118"/>
       <c r="J14" s="30"/>
       <c r="L14" s="21" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="132"/>
-      <c r="C15" s="133"/>
-      <c r="D15" s="133"/>
-      <c r="E15" s="133"/>
-      <c r="F15" s="134"/>
-      <c r="G15" s="135"/>
-      <c r="H15" s="136"/>
-      <c r="I15" s="137"/>
+      <c r="B15" s="122"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="127"/>
     </row>
     <row r="16" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="46"/>
@@ -4097,10 +4097,10 @@
       <c r="I16" s="32"/>
     </row>
     <row r="17" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="118" t="s">
+      <c r="B17" s="108" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="118"/>
+      <c r="C17" s="108"/>
       <c r="D17" s="39" t="s">
         <v>14</v>
       </c>
@@ -4125,31 +4125,31 @@
       <c r="E19" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="119"/>
-      <c r="G19" s="119"/>
-      <c r="H19" s="119"/>
-      <c r="I19" s="119"/>
-      <c r="J19" s="119"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="109"/>
+      <c r="H19" s="109"/>
+      <c r="I19" s="109"/>
+      <c r="J19" s="109"/>
     </row>
     <row r="20" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" s="33"/>
       <c r="E20" s="34"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="120"/>
-      <c r="H20" s="120"/>
-      <c r="I20" s="120"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="110"/>
+      <c r="I20" s="110"/>
     </row>
     <row r="21" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="121" t="s">
+      <c r="F21" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="121"/>
-      <c r="H21" s="121"/>
-      <c r="I21" s="121"/>
-      <c r="J21" s="121"/>
+      <c r="G21" s="111"/>
+      <c r="H21" s="111"/>
+      <c r="I21" s="111"/>
+      <c r="J21" s="111"/>
     </row>
     <row r="22" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E22" s="34"/>
@@ -4182,6 +4182,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:I10"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="F19:J19"/>
     <mergeCell ref="F20:I20"/>
@@ -4195,11 +4200,6 @@
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:I10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/template/諸経費等.xlsx
+++ b/template/諸経費等.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hishi\Desktop\_kbs_backend\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F07AF5-02E7-4C42-A0D0-690E31F28E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC99574-5936-4873-8013-997A0A213A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7240" yWindow="2730" windowWidth="16710" windowHeight="8170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="支払依頼書帳票" sheetId="17" r:id="rId1"/>
@@ -626,7 +626,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>買主： 株式会社メトロス開発</t>
+    <t>株式会社メトロス開発</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1564,7 +1564,61 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="21" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1576,59 +1630,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="21" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1670,90 +1685,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="14" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="14" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="14" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="15" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="15" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -1788,6 +1719,75 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="14" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="14" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="14" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="15" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="15" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3515,35 +3515,35 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="85" t="s">
+      <c r="E2" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="82" t="s">
+      <c r="F2" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="84"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="69"/>
     </row>
     <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="67"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="86"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="71"/>
       <c r="F3" s="43" t="s">
         <v>1</v>
       </c>
@@ -3562,14 +3562,14 @@
       <c r="K3" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="87" t="s">
+      <c r="L3" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="87"/>
-      <c r="N3" s="67" t="s">
+      <c r="M3" s="72"/>
+      <c r="N3" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="O3" s="67"/>
+      <c r="O3" s="77"/>
     </row>
     <row r="4" spans="1:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="9" t="s">
@@ -3605,14 +3605,14 @@
       <c r="K4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="88" t="s">
+      <c r="L4" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="88"/>
-      <c r="N4" s="74" t="s">
+      <c r="M4" s="73"/>
+      <c r="N4" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="O4" s="74"/>
+      <c r="O4" s="78"/>
     </row>
     <row r="5" spans="1:15" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="14"/>
@@ -3631,13 +3631,13 @@
         <f>SUM(K4:K4)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="88">
+      <c r="L5" s="73">
         <f>SUM(L4:L4)</f>
         <v>0</v>
       </c>
-      <c r="M5" s="88"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="79"/>
     </row>
     <row r="6" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="7" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
@@ -3648,48 +3648,48 @@
       <c r="O8" s="66"/>
     </row>
     <row r="9" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="76"/>
-      <c r="O9" s="79"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="80"/>
+      <c r="O9" s="83"/>
     </row>
     <row r="10" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L10" s="72"/>
-      <c r="M10" s="72"/>
-      <c r="N10" s="77"/>
-      <c r="O10" s="80"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="81"/>
+      <c r="O10" s="84"/>
     </row>
     <row r="11" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L11" s="72"/>
-      <c r="M11" s="72"/>
-      <c r="N11" s="77"/>
-      <c r="O11" s="80"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="75"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="84"/>
     </row>
     <row r="12" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="L12" s="73"/>
-      <c r="M12" s="73"/>
-      <c r="N12" s="78"/>
-      <c r="O12" s="81"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="82"/>
+      <c r="O12" s="85"/>
     </row>
     <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="M9:M12"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="L9:L12"/>
     <mergeCell ref="N9:N12"/>
     <mergeCell ref="O9:O12"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="L5:M5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="M9:M12"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="1.1417322834645669" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3739,20 +3739,20 @@
         <v>56</v>
       </c>
       <c r="D3" s="55"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="107"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="I4" s="104"/>
-      <c r="J4" s="106"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="103"/>
-      <c r="N4" s="103"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
     </row>
     <row r="5" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -3768,17 +3768,17 @@
       <c r="D6" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="90" t="s">
+      <c r="E6" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90" t="s">
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="57" t="s">
@@ -3793,13 +3793,13 @@
       <c r="D7" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="95"/>
     </row>
     <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="58" t="s">
@@ -3814,17 +3814,17 @@
       <c r="D8" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="91" t="s">
+      <c r="E8" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="97" t="s">
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="J8" s="97"/>
-      <c r="K8" s="97"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="61" t="s">
@@ -3839,13 +3839,13 @@
       <c r="D9" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="94"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="97"/>
-      <c r="J9" s="97"/>
-      <c r="K9" s="97"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="56" t="s">
@@ -3862,34 +3862,28 @@
         <f>SUM(D8:D9)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="98" t="s">
+      <c r="E10" s="103" t="s">
         <v>78</v>
       </c>
-      <c r="F10" s="99"/>
-      <c r="G10" s="100">
+      <c r="F10" s="104"/>
+      <c r="G10" s="105">
         <f>SUM(B10-D10)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="101"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="102"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="103"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="107"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="I11" s="89" t="s">
+      <c r="I11" s="94" t="s">
         <v>79</v>
       </c>
-      <c r="J11" s="89"/>
-      <c r="K11" s="89"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
     <mergeCell ref="I11:K11"/>
     <mergeCell ref="E6:H7"/>
     <mergeCell ref="I6:K7"/>
@@ -3898,6 +3892,12 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="I10:K10"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -3932,16 +3932,16 @@
     </row>
     <row r="2" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="20"/>
-      <c r="B2" s="131" t="s">
+      <c r="B2" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
       <c r="J2" s="45"/>
     </row>
     <row r="3" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -3956,12 +3956,12 @@
       <c r="I4" s="37"/>
     </row>
     <row r="5" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="132" t="s">
+      <c r="B5" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="132"/>
-      <c r="D5" s="132"/>
-      <c r="E5" s="132"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
       <c r="F5" s="25" t="s">
         <v>6</v>
       </c>
@@ -3969,14 +3969,14 @@
     </row>
     <row r="6" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" s="133" t="str">
+      <c r="D7" s="110" t="str">
         <f>G13</f>
         <v>$payPriceTax$</v>
       </c>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
-      <c r="H7" s="135"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="112"/>
       <c r="I7" s="22"/>
       <c r="J7" s="26"/>
     </row>
@@ -3997,26 +3997,26 @@
       <c r="J9" s="26"/>
     </row>
     <row r="10" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="136" t="s">
+      <c r="B10" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="137"/>
-      <c r="D10" s="138" t="s">
+      <c r="C10" s="114"/>
+      <c r="D10" s="115" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="139"/>
-      <c r="F10" s="139"/>
-      <c r="G10" s="139"/>
-      <c r="H10" s="139"/>
-      <c r="I10" s="140"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="117"/>
       <c r="J10" s="26"/>
-      <c r="L10" s="112">
+      <c r="L10" s="122">
         <v>8250000</v>
       </c>
-      <c r="M10" s="112"/>
-      <c r="N10" s="112"/>
-      <c r="O10" s="112"/>
-      <c r="P10" s="112"/>
+      <c r="M10" s="122"/>
+      <c r="N10" s="122"/>
+      <c r="O10" s="122"/>
+      <c r="P10" s="122"/>
     </row>
     <row r="11" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J11" s="30"/>
@@ -4025,66 +4025,66 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="128" t="s">
+      <c r="B12" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="129"/>
-      <c r="D12" s="129"/>
-      <c r="E12" s="129"/>
-      <c r="F12" s="129"/>
-      <c r="G12" s="129" t="s">
+      <c r="C12" s="139"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="139" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="129"/>
-      <c r="I12" s="130"/>
+      <c r="H12" s="139"/>
+      <c r="I12" s="140"/>
       <c r="J12" s="30"/>
       <c r="L12" s="21" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="113" t="s">
+      <c r="B13" s="123" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="114"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="116" t="s">
+      <c r="C13" s="124"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="117"/>
-      <c r="I13" s="118"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="30"/>
       <c r="L13" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="119" t="s">
+      <c r="B14" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="121"/>
-      <c r="G14" s="116"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="118"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="131"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="30"/>
       <c r="L14" s="21" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="122"/>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="124"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="127"/>
+      <c r="B15" s="132"/>
+      <c r="C15" s="133"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="135"/>
+      <c r="H15" s="136"/>
+      <c r="I15" s="137"/>
     </row>
     <row r="16" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="46"/>
@@ -4097,10 +4097,10 @@
       <c r="I16" s="32"/>
     </row>
     <row r="17" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="108" t="s">
+      <c r="B17" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="108"/>
+      <c r="C17" s="118"/>
       <c r="D17" s="39" t="s">
         <v>14</v>
       </c>
@@ -4125,31 +4125,31 @@
       <c r="E19" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="109"/>
-      <c r="G19" s="109"/>
-      <c r="H19" s="109"/>
-      <c r="I19" s="109"/>
-      <c r="J19" s="109"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="119"/>
+      <c r="I19" s="119"/>
+      <c r="J19" s="119"/>
     </row>
     <row r="20" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" s="33"/>
       <c r="E20" s="34"/>
-      <c r="F20" s="110"/>
-      <c r="G20" s="110"/>
-      <c r="H20" s="110"/>
-      <c r="I20" s="110"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="120"/>
+      <c r="H20" s="120"/>
+      <c r="I20" s="120"/>
     </row>
     <row r="21" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="111" t="s">
+      <c r="F21" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="111"/>
-      <c r="H21" s="111"/>
-      <c r="I21" s="111"/>
-      <c r="J21" s="111"/>
+      <c r="G21" s="121"/>
+      <c r="H21" s="121"/>
+      <c r="I21" s="121"/>
+      <c r="J21" s="121"/>
     </row>
     <row r="22" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E22" s="34"/>
@@ -4182,11 +4182,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:I10"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="F19:J19"/>
     <mergeCell ref="F20:I20"/>
@@ -4200,6 +4195,11 @@
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:I10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/template/諸経費等.xlsx
+++ b/template/諸経費等.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hishi\Desktop\_kbs_backend\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayane\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC99574-5936-4873-8013-997A0A213A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A31B62-7415-4BD0-ADAE-3B6840BD1FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -306,6 +306,9 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>買主： 株式会社メトロス開発</t>
+  </si>
+  <si>
     <t>以下余白</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -623,10 +626,6 @@
     <rPh sb="8" eb="10">
       <t>カイハツ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>株式会社メトロス開発</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1564,19 +1563,16 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1594,9 +1590,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1621,30 +1614,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1685,6 +1654,90 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="14" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="14" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="14" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="15" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="15" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -1720,73 +1773,19 @@
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="14" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="14" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="14" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="15" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="15" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3166,9 +3165,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3206,7 +3205,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3312,7 +3311,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3454,7 +3453,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3467,9 +3466,7 @@
   </sheetPr>
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -3491,7 +3488,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3" t="s">
@@ -3508,42 +3505,42 @@
         <v>18</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="77" t="s">
+      <c r="D2" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="139" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="70" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="67" t="s">
+      <c r="F2" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="138"/>
     </row>
     <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="77"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="71"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="140"/>
       <c r="F3" s="43" t="s">
         <v>1</v>
       </c>
@@ -3562,30 +3559,30 @@
       <c r="K3" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="72" t="s">
+      <c r="L3" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="72"/>
-      <c r="N3" s="77" t="s">
-        <v>40</v>
-      </c>
-      <c r="O3" s="77"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="67"/>
     </row>
     <row r="4" spans="1:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F4" s="44" t="s">
         <v>21</v>
@@ -3605,14 +3602,14 @@
       <c r="K4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="73" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" s="73"/>
-      <c r="N4" s="78" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" s="78"/>
+      <c r="L4" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="72"/>
+      <c r="N4" s="76" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="76"/>
     </row>
     <row r="5" spans="1:15" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="14"/>
@@ -3631,13 +3628,13 @@
         <f>SUM(K4:K4)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="73">
+      <c r="L5" s="72">
         <f>SUM(L4:L4)</f>
         <v>0</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="79"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
     </row>
     <row r="6" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="7" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
@@ -3648,36 +3645,37 @@
       <c r="O8" s="66"/>
     </row>
     <row r="9" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="80"/>
-      <c r="O9" s="83"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="78"/>
+      <c r="O9" s="81"/>
     </row>
     <row r="10" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L10" s="75"/>
-      <c r="M10" s="75"/>
-      <c r="N10" s="81"/>
-      <c r="O10" s="84"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="79"/>
+      <c r="O10" s="82"/>
     </row>
     <row r="11" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L11" s="75"/>
-      <c r="M11" s="75"/>
-      <c r="N11" s="81"/>
-      <c r="O11" s="84"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="79"/>
+      <c r="O11" s="82"/>
     </row>
     <row r="12" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="L12" s="76"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="82"/>
-      <c r="O12" s="85"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="75"/>
+      <c r="N12" s="80"/>
+      <c r="O12" s="83"/>
     </row>
     <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M5"/>
     <mergeCell ref="M9:M12"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="N4:O4"/>
@@ -3685,11 +3683,10 @@
     <mergeCell ref="L9:L12"/>
     <mergeCell ref="N9:N12"/>
     <mergeCell ref="O9:O12"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="1.1417322834645669" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3719,7 +3716,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -3730,160 +3727,166 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3" s="54" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D3" s="55"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="98"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="I4" s="90"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="98"/>
     </row>
     <row r="5" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="57" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B6" s="57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C6" s="57" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D6" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95" t="s">
+      <c r="E6" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="57" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C7" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="57" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
     </row>
     <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="58" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="59" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C8" s="60" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D8" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="102" t="s">
+      <c r="E8" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="92" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="61" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B9" s="62" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C9" s="61" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D9" s="63" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="99"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
+        <v>76</v>
+      </c>
+      <c r="E9" s="89"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="56" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B10" s="64">
         <f>SUM(B8:B9)</f>
         <v>0</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D10" s="64">
         <f>SUM(D8:D9)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="103" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="104"/>
-      <c r="G10" s="105">
+      <c r="E10" s="93" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="94"/>
+      <c r="G10" s="95">
         <f>SUM(B10-D10)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="106"/>
-      <c r="I10" s="103"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="107"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="97"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="I11" s="94" t="s">
-        <v>79</v>
-      </c>
-      <c r="J11" s="94"/>
-      <c r="K11" s="94"/>
+      <c r="I11" s="84" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="I11:K11"/>
     <mergeCell ref="E6:H7"/>
     <mergeCell ref="I6:K7"/>
@@ -3892,12 +3895,6 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="I10:K10"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -3932,16 +3929,16 @@
     </row>
     <row r="2" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="20"/>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
       <c r="J2" s="45"/>
     </row>
     <row r="3" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -3956,12 +3953,12 @@
       <c r="I4" s="37"/>
     </row>
     <row r="5" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="127"/>
       <c r="F5" s="25" t="s">
         <v>6</v>
       </c>
@@ -3969,14 +3966,14 @@
     </row>
     <row r="6" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" s="110" t="str">
+      <c r="D7" s="128" t="str">
         <f>G13</f>
         <v>$payPriceTax$</v>
       </c>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="112"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="130"/>
       <c r="I7" s="22"/>
       <c r="J7" s="26"/>
     </row>
@@ -3997,94 +3994,94 @@
       <c r="J9" s="26"/>
     </row>
     <row r="10" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="113" t="s">
+      <c r="B10" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="114"/>
-      <c r="D10" s="115" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="117"/>
+      <c r="C10" s="132"/>
+      <c r="D10" s="133" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="134"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="134"/>
+      <c r="I10" s="135"/>
       <c r="J10" s="26"/>
-      <c r="L10" s="122">
+      <c r="L10" s="107">
         <v>8250000</v>
       </c>
-      <c r="M10" s="122"/>
-      <c r="N10" s="122"/>
-      <c r="O10" s="122"/>
-      <c r="P10" s="122"/>
+      <c r="M10" s="107"/>
+      <c r="N10" s="107"/>
+      <c r="O10" s="107"/>
+      <c r="P10" s="107"/>
     </row>
     <row r="11" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J11" s="30"/>
       <c r="L11" s="21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="138" t="s">
+      <c r="B12" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="139"/>
-      <c r="D12" s="139"/>
-      <c r="E12" s="139"/>
-      <c r="F12" s="139"/>
-      <c r="G12" s="139" t="s">
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="139"/>
-      <c r="I12" s="140"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="125"/>
       <c r="J12" s="30"/>
       <c r="L12" s="21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="123" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="124"/>
-      <c r="D13" s="124"/>
-      <c r="E13" s="124"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="126" t="s">
+      <c r="B13" s="108" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="109"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="113"/>
       <c r="J13" s="30"/>
       <c r="L13" s="21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="129" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="130"/>
-      <c r="D14" s="130"/>
-      <c r="E14" s="130"/>
-      <c r="F14" s="131"/>
-      <c r="G14" s="126"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="B14" s="114" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="116"/>
+      <c r="G14" s="111"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="113"/>
       <c r="J14" s="30"/>
       <c r="L14" s="21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="132"/>
-      <c r="C15" s="133"/>
-      <c r="D15" s="133"/>
-      <c r="E15" s="133"/>
-      <c r="F15" s="134"/>
-      <c r="G15" s="135"/>
-      <c r="H15" s="136"/>
-      <c r="I15" s="137"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
     </row>
     <row r="16" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="46"/>
@@ -4097,10 +4094,10 @@
       <c r="I16" s="32"/>
     </row>
     <row r="17" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="118" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="118"/>
+      <c r="B17" s="103" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="103"/>
       <c r="D17" s="39" t="s">
         <v>14</v>
       </c>
@@ -4125,31 +4122,31 @@
       <c r="E19" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="119"/>
-      <c r="G19" s="119"/>
-      <c r="H19" s="119"/>
-      <c r="I19" s="119"/>
-      <c r="J19" s="119"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="104"/>
+      <c r="J19" s="104"/>
     </row>
     <row r="20" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" s="33"/>
       <c r="E20" s="34"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="120"/>
-      <c r="H20" s="120"/>
-      <c r="I20" s="120"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="105"/>
+      <c r="I20" s="105"/>
     </row>
     <row r="21" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="121" t="s">
+      <c r="F21" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="121"/>
-      <c r="H21" s="121"/>
-      <c r="I21" s="121"/>
-      <c r="J21" s="121"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="106"/>
     </row>
     <row r="22" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E22" s="34"/>
@@ -4182,6 +4179,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:I10"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="F19:J19"/>
     <mergeCell ref="F20:I20"/>
@@ -4195,11 +4197,6 @@
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:I10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
